--- a/Code/Results/Cases/Case_1_26/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_26/res_line/pl_mw.xlsx
@@ -412,34 +412,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.600878461428351</v>
+        <v>3.600878461428124</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1763572391060677</v>
+        <v>0.1763572391060819</v>
       </c>
       <c r="E2">
-        <v>1.102436856311812</v>
+        <v>1.10243685631184</v>
       </c>
       <c r="F2">
-        <v>2.50059978008629</v>
+        <v>2.500599780086247</v>
       </c>
       <c r="G2">
-        <v>2.258719629296181</v>
+        <v>2.258719629296152</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.6205416721959978</v>
+        <v>0.6205416721960333</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.94620555944957</v>
+        <v>10.94620555944965</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,34 +450,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.08884791395252</v>
+        <v>3.088847913952179</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1460679351813923</v>
+        <v>0.1460679351814775</v>
       </c>
       <c r="E3">
         <v>0.9485046106755277</v>
       </c>
       <c r="F3">
-        <v>2.035432468837854</v>
+        <v>2.03543246883784</v>
       </c>
       <c r="G3">
-        <v>1.839744949789548</v>
+        <v>1.839744949789534</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.5314045586257663</v>
+        <v>0.5314045586257734</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.360376408915869</v>
+        <v>9.36037640891584</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.783659013699264</v>
+        <v>2.783659013699207</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1287912017592845</v>
+        <v>0.1287912017593982</v>
       </c>
       <c r="E4">
         <v>0.8567486962755453</v>
       </c>
       <c r="F4">
-        <v>1.779948499471857</v>
+        <v>1.779948499471843</v>
       </c>
       <c r="G4">
         <v>1.608661014315743</v>
@@ -509,13 +509,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.4787915239676721</v>
+        <v>0.4787915239677005</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.418872238755625</v>
+        <v>8.418872238755597</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,34 +526,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.661111987924869</v>
+        <v>2.661111987924983</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1220129863446999</v>
+        <v>0.1220129863447994</v>
       </c>
       <c r="E5">
-        <v>0.8198978767438518</v>
+        <v>0.8198978767438803</v>
       </c>
       <c r="F5">
-        <v>1.681962524901095</v>
+        <v>1.681962524901067</v>
       </c>
       <c r="G5">
-        <v>1.519802296177843</v>
+        <v>1.519802296177829</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.4577693706637476</v>
+        <v>0.4577693706637405</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.04148215173629</v>
+        <v>8.041482151736261</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.640860488046997</v>
+        <v>2.640860488047338</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1209015536652771</v>
+        <v>0.1209015536652913</v>
       </c>
       <c r="E6">
         <v>0.8138075875589408</v>
       </c>
       <c r="F6">
-        <v>1.666025578330192</v>
+        <v>1.666025578330164</v>
       </c>
       <c r="G6">
         <v>1.505336183078086</v>
@@ -585,7 +585,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.4543010262135923</v>
+        <v>0.4543010262135709</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -602,7 +602,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.781999513132121</v>
+        <v>2.781999513132519</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -611,25 +611,25 @@
         <v>0.1286988077518743</v>
       </c>
       <c r="E7">
-        <v>0.8562497041804562</v>
+        <v>0.856249704180442</v>
       </c>
       <c r="F7">
         <v>1.778603907353997</v>
       </c>
       <c r="G7">
-        <v>1.607442609492637</v>
+        <v>1.607442609492608</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.4785064522799871</v>
+        <v>0.4785064522799729</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.413759313882423</v>
+        <v>8.413759313882366</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.422089190850045</v>
+        <v>3.42208919085067</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1655915763552116</v>
+        <v>0.1655915763548848</v>
       </c>
       <c r="E8">
-        <v>1.048684770986824</v>
+        <v>1.04868477098681</v>
       </c>
       <c r="F8">
-        <v>2.332969889393226</v>
+        <v>2.332969889393254</v>
       </c>
       <c r="G8">
-        <v>2.107961852661703</v>
+        <v>2.107961852661731</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.3914983994778</v>
+        <v>10.39149839947774</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,34 +678,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.780129328348437</v>
+        <v>4.780129328348096</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2528342593677451</v>
+        <v>0.2528342593678587</v>
       </c>
       <c r="E9">
-        <v>1.457330163789933</v>
+        <v>1.457330163789919</v>
       </c>
       <c r="F9">
-        <v>3.749898804839972</v>
+        <v>3.749898804839916</v>
       </c>
       <c r="G9">
-        <v>3.37662622151143</v>
+        <v>3.376626221511444</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.8304033995151983</v>
+        <v>0.8304033995152196</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>14.63732571403546</v>
+        <v>14.6373257140354</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,34 +716,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.902565987748119</v>
+        <v>5.902565987748005</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.3357677388852238</v>
+        <v>0.3357677388853233</v>
       </c>
       <c r="E10">
-        <v>1.796402570446077</v>
+        <v>1.796402570446119</v>
       </c>
       <c r="F10">
-        <v>5.190285007687208</v>
+        <v>5.19028500768718</v>
       </c>
       <c r="G10">
-        <v>4.657686889058141</v>
+        <v>4.657686889058184</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.037160317023755</v>
+        <v>1.037160317023769</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>18.21940979405525</v>
+        <v>18.21940979405531</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,28 +754,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.465491952002139</v>
+        <v>6.465491952000889</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.3818891854692055</v>
+        <v>0.3818891854690634</v>
       </c>
       <c r="E11">
-        <v>1.967235033231219</v>
+        <v>1.967235033231233</v>
       </c>
       <c r="F11">
-        <v>6.018473277181158</v>
+        <v>6.018473277181101</v>
       </c>
       <c r="G11">
-        <v>5.39194327158836</v>
+        <v>5.391943271588303</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.143952056086476</v>
+        <v>1.143952056086455</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -792,34 +792,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.690126672376891</v>
+        <v>6.690126672377232</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.4012805075466161</v>
+        <v>0.4012805075464883</v>
       </c>
       <c r="E12">
-        <v>2.035592485836048</v>
+        <v>2.03559248583602</v>
       </c>
       <c r="F12">
-        <v>6.371184060053366</v>
+        <v>6.371184060053253</v>
       </c>
       <c r="G12">
-        <v>5.704278159882847</v>
+        <v>5.704278159882818</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.187227419325524</v>
+        <v>1.187227419325509</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>20.78747675245683</v>
+        <v>20.7874767524566</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,34 +830,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.641143413814689</v>
+        <v>6.641143413814973</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.3970007725819045</v>
+        <v>0.3970007725817908</v>
       </c>
       <c r="E13">
-        <v>2.02067672185261</v>
+        <v>2.020676721852638</v>
       </c>
       <c r="F13">
-        <v>6.293133222681433</v>
+        <v>6.293133222681405</v>
       </c>
       <c r="G13">
-        <v>5.635178839781304</v>
+        <v>5.635178839781275</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.177756999181042</v>
+        <v>1.177756999181085</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>20.62617146360429</v>
+        <v>20.62617146360424</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,34 +868,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.483710347103454</v>
+        <v>6.483710347104079</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.3834397720277707</v>
+        <v>0.3834397720275433</v>
       </c>
       <c r="E14">
-        <v>1.972774724003173</v>
+        <v>1.972774724003131</v>
       </c>
       <c r="F14">
-        <v>6.046586720828799</v>
+        <v>6.046586720828856</v>
       </c>
       <c r="G14">
-        <v>5.416845838481152</v>
+        <v>5.416845838481123</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.14744714340717</v>
+        <v>1.147447143407184</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>20.10924030526007</v>
+        <v>20.10924030526024</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,34 +906,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.388934520158784</v>
+        <v>6.388934520159523</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.3754147411501236</v>
+        <v>0.3754147411502373</v>
       </c>
       <c r="E15">
         <v>1.943964044607185</v>
       </c>
       <c r="F15">
-        <v>5.901263465245876</v>
+        <v>5.901263465245961</v>
       </c>
       <c r="G15">
-        <v>5.28810567082536</v>
+        <v>5.288105670825445</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.12929260438073</v>
+        <v>1.129292604380744</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>19.79911798014365</v>
+        <v>19.79911798014382</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.86711250532386</v>
+        <v>5.867112505323348</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.3329729847589675</v>
+        <v>0.3329729847588681</v>
       </c>
       <c r="E16">
         <v>1.785663639803786</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.030509048241619</v>
+        <v>1.030509048241612</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>18.10498137705542</v>
+        <v>18.10498137705554</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,34 +982,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.562503641132537</v>
+        <v>5.562503641131627</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.3094594838035647</v>
+        <v>0.3094594838036926</v>
       </c>
       <c r="E17">
         <v>1.693484283503651</v>
       </c>
       <c r="F17">
-        <v>4.725752021814884</v>
+        <v>4.725752021814799</v>
       </c>
       <c r="G17">
-        <v>4.245189617970453</v>
+        <v>4.245189617970397</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.9737041446907284</v>
+        <v>0.9737041446907071</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>17.12555976152493</v>
+        <v>17.12555976152487</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1026,13 +1026,13 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.2966654640062671</v>
+        <v>0.2966654640062956</v>
       </c>
       <c r="E18">
         <v>1.64192126799891</v>
       </c>
       <c r="F18">
-        <v>4.502216273531417</v>
+        <v>4.502216273531332</v>
       </c>
       <c r="G18">
         <v>4.046494024400545</v>
@@ -1041,13 +1041,13 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.9421477268909229</v>
+        <v>0.9421477268909371</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>16.57978920226378</v>
+        <v>16.5797892022639</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,34 +1058,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.334846986368802</v>
+        <v>5.334846986369257</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.2924443486401742</v>
+        <v>0.2924443486399326</v>
       </c>
       <c r="E19">
-        <v>1.624685771865501</v>
+        <v>1.624685771865472</v>
       </c>
       <c r="F19">
-        <v>4.428830661126199</v>
+        <v>4.428830661126142</v>
       </c>
       <c r="G19">
-        <v>3.981232196414808</v>
+        <v>3.981232196414766</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.9316338008261837</v>
+        <v>0.931633800826134</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>16.39768102322739</v>
+        <v>16.39768102322728</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.594432430173185</v>
+        <v>5.594432430172901</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0.3118832491450831</v>
       </c>
       <c r="E20">
-        <v>1.703139414656576</v>
+        <v>1.70313941465659</v>
       </c>
       <c r="F20">
         <v>4.76828150742773</v>
@@ -1117,13 +1117,13 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.9796302873270051</v>
+        <v>0.9796302873270122</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>17.22791835249308</v>
+        <v>17.22791835249291</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,34 +1134,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.52959563439731</v>
+        <v>6.529595634397197</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.3873621360825297</v>
+        <v>0.3873621360826434</v>
       </c>
       <c r="E21">
         <v>1.986730389770869</v>
       </c>
       <c r="F21">
-        <v>6.117774279706595</v>
+        <v>6.117774279706509</v>
       </c>
       <c r="G21">
-        <v>5.479897099089413</v>
+        <v>5.479897099089328</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.156261270236079</v>
+        <v>1.156261270236037</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>20.25967120150278</v>
+        <v>20.25967120150261</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,34 +1172,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.212145750873333</v>
+        <v>7.21214575087356</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.4488062124807044</v>
+        <v>0.4488062124807186</v>
       </c>
       <c r="E22">
-        <v>2.194924583736181</v>
+        <v>2.194924583736153</v>
       </c>
       <c r="F22">
-        <v>7.244904752817092</v>
+        <v>7.244904752817007</v>
       </c>
       <c r="G22">
-        <v>6.477226629937775</v>
+        <v>6.477226629937689</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.289399676508793</v>
+        <v>1.289399676508751</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>22.52147905011179</v>
+        <v>22.52147905011157</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,28 +1210,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.83911186807785</v>
+        <v>6.83911186807893</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.4144799617389481</v>
+        <v>0.4144799617390049</v>
       </c>
       <c r="E23">
-        <v>2.08099503657273</v>
+        <v>2.080995036572702</v>
       </c>
       <c r="F23">
-        <v>6.61260151058454</v>
+        <v>6.612601510584511</v>
       </c>
       <c r="G23">
-        <v>5.917951430675686</v>
+        <v>5.9179514306756</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.216151813849592</v>
+        <v>1.216151813849571</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1248,28 +1248,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.579983588474022</v>
+        <v>5.57998358847351</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.3107852541086231</v>
+        <v>0.3107852541086089</v>
       </c>
       <c r="E24">
-        <v>1.698769950984925</v>
+        <v>1.698769950984939</v>
       </c>
       <c r="F24">
-        <v>4.749008128085137</v>
+        <v>4.749008128085165</v>
       </c>
       <c r="G24">
-        <v>4.265853551203307</v>
+        <v>4.265853551203335</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.9769477112887586</v>
+        <v>0.9769477112887373</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1286,34 +1286,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.396708449913717</v>
+        <v>4.396708449914172</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2268764519040758</v>
+        <v>0.2268764519040047</v>
       </c>
       <c r="E25">
         <v>1.341840245035016</v>
       </c>
       <c r="F25">
-        <v>3.315686237298223</v>
+        <v>3.315686237298252</v>
       </c>
       <c r="G25">
-        <v>2.989015364001801</v>
+        <v>2.989015364001787</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.7614173482068054</v>
+        <v>0.7614173482067983</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>13.43031019123939</v>
+        <v>13.43031019123944</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_26/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_26/res_line/pl_mw.xlsx
@@ -412,34 +412,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.600878461428124</v>
+        <v>3.600878461428351</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1763572391060819</v>
+        <v>0.1763572391060677</v>
       </c>
       <c r="E2">
-        <v>1.10243685631184</v>
+        <v>1.102436856311812</v>
       </c>
       <c r="F2">
-        <v>2.500599780086247</v>
+        <v>2.50059978008629</v>
       </c>
       <c r="G2">
-        <v>2.258719629296152</v>
+        <v>2.258719629296181</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.6205416721960333</v>
+        <v>0.6205416721959978</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.94620555944965</v>
+        <v>10.94620555944957</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,34 +450,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.088847913952179</v>
+        <v>3.08884791395252</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1460679351814775</v>
+        <v>0.1460679351813923</v>
       </c>
       <c r="E3">
         <v>0.9485046106755277</v>
       </c>
       <c r="F3">
-        <v>2.03543246883784</v>
+        <v>2.035432468837854</v>
       </c>
       <c r="G3">
-        <v>1.839744949789534</v>
+        <v>1.839744949789548</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.5314045586257734</v>
+        <v>0.5314045586257663</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.36037640891584</v>
+        <v>9.360376408915869</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.783659013699207</v>
+        <v>2.783659013699264</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1287912017593982</v>
+        <v>0.1287912017592845</v>
       </c>
       <c r="E4">
         <v>0.8567486962755453</v>
       </c>
       <c r="F4">
-        <v>1.779948499471843</v>
+        <v>1.779948499471857</v>
       </c>
       <c r="G4">
         <v>1.608661014315743</v>
@@ -509,13 +509,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.4787915239677005</v>
+        <v>0.4787915239676721</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.418872238755597</v>
+        <v>8.418872238755625</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,34 +526,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.661111987924983</v>
+        <v>2.661111987924869</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1220129863447994</v>
+        <v>0.1220129863446999</v>
       </c>
       <c r="E5">
-        <v>0.8198978767438803</v>
+        <v>0.8198978767438518</v>
       </c>
       <c r="F5">
-        <v>1.681962524901067</v>
+        <v>1.681962524901095</v>
       </c>
       <c r="G5">
-        <v>1.519802296177829</v>
+        <v>1.519802296177843</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.4577693706637405</v>
+        <v>0.4577693706637476</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.041482151736261</v>
+        <v>8.04148215173629</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.640860488047338</v>
+        <v>2.640860488046997</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1209015536652913</v>
+        <v>0.1209015536652771</v>
       </c>
       <c r="E6">
         <v>0.8138075875589408</v>
       </c>
       <c r="F6">
-        <v>1.666025578330164</v>
+        <v>1.666025578330192</v>
       </c>
       <c r="G6">
         <v>1.505336183078086</v>
@@ -585,7 +585,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.4543010262135709</v>
+        <v>0.4543010262135923</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -602,7 +602,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.781999513132519</v>
+        <v>2.781999513132121</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -611,25 +611,25 @@
         <v>0.1286988077518743</v>
       </c>
       <c r="E7">
-        <v>0.856249704180442</v>
+        <v>0.8562497041804562</v>
       </c>
       <c r="F7">
         <v>1.778603907353997</v>
       </c>
       <c r="G7">
-        <v>1.607442609492608</v>
+        <v>1.607442609492637</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.4785064522799729</v>
+        <v>0.4785064522799871</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.413759313882366</v>
+        <v>8.413759313882423</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.42208919085067</v>
+        <v>3.422089190850045</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1655915763548848</v>
+        <v>0.1655915763552116</v>
       </c>
       <c r="E8">
-        <v>1.04868477098681</v>
+        <v>1.048684770986824</v>
       </c>
       <c r="F8">
-        <v>2.332969889393254</v>
+        <v>2.332969889393226</v>
       </c>
       <c r="G8">
-        <v>2.107961852661731</v>
+        <v>2.107961852661703</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.39149839947774</v>
+        <v>10.3914983994778</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,34 +678,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.780129328348096</v>
+        <v>4.780129328348437</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2528342593678587</v>
+        <v>0.2528342593677451</v>
       </c>
       <c r="E9">
-        <v>1.457330163789919</v>
+        <v>1.457330163789933</v>
       </c>
       <c r="F9">
-        <v>3.749898804839916</v>
+        <v>3.749898804839972</v>
       </c>
       <c r="G9">
-        <v>3.376626221511444</v>
+        <v>3.37662622151143</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.8304033995152196</v>
+        <v>0.8304033995151983</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>14.6373257140354</v>
+        <v>14.63732571403546</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,34 +716,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.902565987748005</v>
+        <v>5.902565987748119</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.3357677388853233</v>
+        <v>0.3357677388852238</v>
       </c>
       <c r="E10">
-        <v>1.796402570446119</v>
+        <v>1.796402570446077</v>
       </c>
       <c r="F10">
-        <v>5.19028500768718</v>
+        <v>5.190285007687208</v>
       </c>
       <c r="G10">
-        <v>4.657686889058184</v>
+        <v>4.657686889058141</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.037160317023769</v>
+        <v>1.037160317023755</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>18.21940979405531</v>
+        <v>18.21940979405525</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,28 +754,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.465491952000889</v>
+        <v>6.465491952002139</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.3818891854690634</v>
+        <v>0.3818891854692055</v>
       </c>
       <c r="E11">
-        <v>1.967235033231233</v>
+        <v>1.967235033231219</v>
       </c>
       <c r="F11">
-        <v>6.018473277181101</v>
+        <v>6.018473277181158</v>
       </c>
       <c r="G11">
-        <v>5.391943271588303</v>
+        <v>5.39194327158836</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.143952056086455</v>
+        <v>1.143952056086476</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -792,34 +792,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.690126672377232</v>
+        <v>6.690126672376891</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.4012805075464883</v>
+        <v>0.4012805075466161</v>
       </c>
       <c r="E12">
-        <v>2.03559248583602</v>
+        <v>2.035592485836048</v>
       </c>
       <c r="F12">
-        <v>6.371184060053253</v>
+        <v>6.371184060053366</v>
       </c>
       <c r="G12">
-        <v>5.704278159882818</v>
+        <v>5.704278159882847</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.187227419325509</v>
+        <v>1.187227419325524</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>20.7874767524566</v>
+        <v>20.78747675245683</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,34 +830,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.641143413814973</v>
+        <v>6.641143413814689</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.3970007725817908</v>
+        <v>0.3970007725819045</v>
       </c>
       <c r="E13">
-        <v>2.020676721852638</v>
+        <v>2.02067672185261</v>
       </c>
       <c r="F13">
-        <v>6.293133222681405</v>
+        <v>6.293133222681433</v>
       </c>
       <c r="G13">
-        <v>5.635178839781275</v>
+        <v>5.635178839781304</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.177756999181085</v>
+        <v>1.177756999181042</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>20.62617146360424</v>
+        <v>20.62617146360429</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,34 +868,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.483710347104079</v>
+        <v>6.483710347103454</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.3834397720275433</v>
+        <v>0.3834397720277707</v>
       </c>
       <c r="E14">
-        <v>1.972774724003131</v>
+        <v>1.972774724003173</v>
       </c>
       <c r="F14">
-        <v>6.046586720828856</v>
+        <v>6.046586720828799</v>
       </c>
       <c r="G14">
-        <v>5.416845838481123</v>
+        <v>5.416845838481152</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.147447143407184</v>
+        <v>1.14744714340717</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>20.10924030526024</v>
+        <v>20.10924030526007</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,34 +906,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.388934520159523</v>
+        <v>6.388934520158784</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.3754147411502373</v>
+        <v>0.3754147411501236</v>
       </c>
       <c r="E15">
         <v>1.943964044607185</v>
       </c>
       <c r="F15">
-        <v>5.901263465245961</v>
+        <v>5.901263465245876</v>
       </c>
       <c r="G15">
-        <v>5.288105670825445</v>
+        <v>5.28810567082536</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.129292604380744</v>
+        <v>1.12929260438073</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>19.79911798014382</v>
+        <v>19.79911798014365</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.867112505323348</v>
+        <v>5.86711250532386</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.3329729847588681</v>
+        <v>0.3329729847589675</v>
       </c>
       <c r="E16">
         <v>1.785663639803786</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.030509048241612</v>
+        <v>1.030509048241619</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>18.10498137705554</v>
+        <v>18.10498137705542</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,34 +982,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.562503641131627</v>
+        <v>5.562503641132537</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.3094594838036926</v>
+        <v>0.3094594838035647</v>
       </c>
       <c r="E17">
         <v>1.693484283503651</v>
       </c>
       <c r="F17">
-        <v>4.725752021814799</v>
+        <v>4.725752021814884</v>
       </c>
       <c r="G17">
-        <v>4.245189617970397</v>
+        <v>4.245189617970453</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.9737041446907071</v>
+        <v>0.9737041446907284</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>17.12555976152487</v>
+        <v>17.12555976152493</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1026,13 +1026,13 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.2966654640062956</v>
+        <v>0.2966654640062671</v>
       </c>
       <c r="E18">
         <v>1.64192126799891</v>
       </c>
       <c r="F18">
-        <v>4.502216273531332</v>
+        <v>4.502216273531417</v>
       </c>
       <c r="G18">
         <v>4.046494024400545</v>
@@ -1041,13 +1041,13 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.9421477268909371</v>
+        <v>0.9421477268909229</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>16.5797892022639</v>
+        <v>16.57978920226378</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,34 +1058,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.334846986369257</v>
+        <v>5.334846986368802</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.2924443486399326</v>
+        <v>0.2924443486401742</v>
       </c>
       <c r="E19">
-        <v>1.624685771865472</v>
+        <v>1.624685771865501</v>
       </c>
       <c r="F19">
-        <v>4.428830661126142</v>
+        <v>4.428830661126199</v>
       </c>
       <c r="G19">
-        <v>3.981232196414766</v>
+        <v>3.981232196414808</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.931633800826134</v>
+        <v>0.9316338008261837</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>16.39768102322728</v>
+        <v>16.39768102322739</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.594432430172901</v>
+        <v>5.594432430173185</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0.3118832491450831</v>
       </c>
       <c r="E20">
-        <v>1.70313941465659</v>
+        <v>1.703139414656576</v>
       </c>
       <c r="F20">
         <v>4.76828150742773</v>
@@ -1117,13 +1117,13 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.9796302873270122</v>
+        <v>0.9796302873270051</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>17.22791835249291</v>
+        <v>17.22791835249308</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,34 +1134,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.529595634397197</v>
+        <v>6.52959563439731</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.3873621360826434</v>
+        <v>0.3873621360825297</v>
       </c>
       <c r="E21">
         <v>1.986730389770869</v>
       </c>
       <c r="F21">
-        <v>6.117774279706509</v>
+        <v>6.117774279706595</v>
       </c>
       <c r="G21">
-        <v>5.479897099089328</v>
+        <v>5.479897099089413</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.156261270236037</v>
+        <v>1.156261270236079</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>20.25967120150261</v>
+        <v>20.25967120150278</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,34 +1172,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.21214575087356</v>
+        <v>7.212145750873333</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.4488062124807186</v>
+        <v>0.4488062124807044</v>
       </c>
       <c r="E22">
-        <v>2.194924583736153</v>
+        <v>2.194924583736181</v>
       </c>
       <c r="F22">
-        <v>7.244904752817007</v>
+        <v>7.244904752817092</v>
       </c>
       <c r="G22">
-        <v>6.477226629937689</v>
+        <v>6.477226629937775</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.289399676508751</v>
+        <v>1.289399676508793</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>22.52147905011157</v>
+        <v>22.52147905011179</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,28 +1210,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.83911186807893</v>
+        <v>6.83911186807785</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.4144799617390049</v>
+        <v>0.4144799617389481</v>
       </c>
       <c r="E23">
-        <v>2.080995036572702</v>
+        <v>2.08099503657273</v>
       </c>
       <c r="F23">
-        <v>6.612601510584511</v>
+        <v>6.61260151058454</v>
       </c>
       <c r="G23">
-        <v>5.9179514306756</v>
+        <v>5.917951430675686</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.216151813849571</v>
+        <v>1.216151813849592</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1248,28 +1248,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.57998358847351</v>
+        <v>5.579983588474022</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.3107852541086089</v>
+        <v>0.3107852541086231</v>
       </c>
       <c r="E24">
-        <v>1.698769950984939</v>
+        <v>1.698769950984925</v>
       </c>
       <c r="F24">
-        <v>4.749008128085165</v>
+        <v>4.749008128085137</v>
       </c>
       <c r="G24">
-        <v>4.265853551203335</v>
+        <v>4.265853551203307</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.9769477112887373</v>
+        <v>0.9769477112887586</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1286,34 +1286,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.396708449914172</v>
+        <v>4.396708449913717</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2268764519040047</v>
+        <v>0.2268764519040758</v>
       </c>
       <c r="E25">
         <v>1.341840245035016</v>
       </c>
       <c r="F25">
-        <v>3.315686237298252</v>
+        <v>3.315686237298223</v>
       </c>
       <c r="G25">
-        <v>2.989015364001787</v>
+        <v>2.989015364001801</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.7614173482067983</v>
+        <v>0.7614173482068054</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>13.43031019123944</v>
+        <v>13.43031019123939</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_26/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_26/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.600878461428351</v>
+        <v>3.600558228112789</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1763572391060677</v>
+        <v>0.1757641971476431</v>
       </c>
       <c r="E2">
-        <v>1.102436856311812</v>
+        <v>1.102100870928624</v>
       </c>
       <c r="F2">
-        <v>2.50059978008629</v>
+        <v>2.494668424122295</v>
       </c>
       <c r="G2">
-        <v>2.258719629296181</v>
+        <v>0.7811255305784925</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.474383181624518</v>
       </c>
       <c r="I2">
-        <v>0.6205416721959978</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.6206432788043159</v>
       </c>
       <c r="K2">
-        <v>10.94620555944957</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>10.94455647359524</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.08884791395252</v>
+        <v>3.088642631272933</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1460679351813923</v>
+        <v>0.1455880844660697</v>
       </c>
       <c r="E3">
-        <v>0.9485046106755277</v>
+        <v>0.9482273461464814</v>
       </c>
       <c r="F3">
-        <v>2.035432468837854</v>
+        <v>2.030712561452091</v>
       </c>
       <c r="G3">
-        <v>1.839744949789548</v>
+        <v>0.6344083524578394</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.203678389356909</v>
       </c>
       <c r="I3">
-        <v>0.5314045586257663</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.5314999000564313</v>
       </c>
       <c r="K3">
-        <v>9.360376408915869</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>9.35925153794696</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.783659013699264</v>
+        <v>2.783508421618365</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1287912017592845</v>
+        <v>0.1283735774353971</v>
       </c>
       <c r="E4">
-        <v>0.8567486962755453</v>
+        <v>0.8565041142213232</v>
       </c>
       <c r="F4">
-        <v>1.779948499471857</v>
+        <v>1.775874125727825</v>
       </c>
       <c r="G4">
-        <v>1.608661014315743</v>
+        <v>0.55305137175543</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1.054793562062528</v>
       </c>
       <c r="I4">
-        <v>0.4787915239676721</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.4788813568724635</v>
       </c>
       <c r="K4">
-        <v>8.418872238755625</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>8.418002906581023</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.661111987924869</v>
+        <v>2.660980710065587</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1220129863446999</v>
+        <v>0.1216193199368121</v>
       </c>
       <c r="E5">
-        <v>0.8198978767438518</v>
+        <v>0.8196660332282875</v>
       </c>
       <c r="F5">
-        <v>1.681962524901095</v>
+        <v>1.678132402404032</v>
       </c>
       <c r="G5">
-        <v>1.519802296177843</v>
+        <v>0.5216633875267718</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.9976445151488633</v>
       </c>
       <c r="I5">
-        <v>0.4577693706637476</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.4578566853351944</v>
       </c>
       <c r="K5">
-        <v>8.04148215173629</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>8.040704651411914</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.640860488046997</v>
+        <v>2.640732261726328</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1209015536652771</v>
+        <v>0.1205117912648035</v>
       </c>
       <c r="E6">
-        <v>0.8138075875589408</v>
+        <v>0.8135778304420853</v>
       </c>
       <c r="F6">
-        <v>1.666025578330192</v>
+        <v>1.662235018399187</v>
       </c>
       <c r="G6">
-        <v>1.505336183078086</v>
+        <v>0.5165473018540609</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.9883467620633724</v>
       </c>
       <c r="I6">
-        <v>0.4543010262135923</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.4543879094157148</v>
       </c>
       <c r="K6">
-        <v>7.979150266176561</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>7.978387373868287</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.781999513132121</v>
+        <v>2.781849192447282</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1286988077518743</v>
+        <v>0.1282815117192797</v>
       </c>
       <c r="E7">
-        <v>0.8562497041804562</v>
+        <v>0.8560052959805944</v>
       </c>
       <c r="F7">
-        <v>1.778603907353997</v>
+        <v>1.7745328972659</v>
       </c>
       <c r="G7">
-        <v>1.607442609492637</v>
+        <v>0.5526214114965455</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1.054009535617737</v>
       </c>
       <c r="I7">
-        <v>0.4785064522799871</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.478596252179706</v>
       </c>
       <c r="K7">
-        <v>8.413759313882423</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>8.412891265213318</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.422089190850045</v>
+        <v>3.421812623629705</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1655915763552116</v>
+        <v>0.1650393732684421</v>
       </c>
       <c r="E8">
-        <v>1.048684770986824</v>
+        <v>1.048369926693596</v>
       </c>
       <c r="F8">
-        <v>2.332969889393226</v>
+        <v>2.327480827206458</v>
       </c>
       <c r="G8">
-        <v>2.107961852661703</v>
+        <v>0.7284341742485765</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.376879780358436</v>
       </c>
       <c r="I8">
-        <v>0.589290190530761</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.589390089367761</v>
       </c>
       <c r="K8">
-        <v>10.3914983994778</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>10.39004697049489</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.780129328348437</v>
+        <v>4.779404134684114</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2528342593677451</v>
+        <v>0.2519302917276605</v>
       </c>
       <c r="E9">
-        <v>1.457330163789933</v>
+        <v>1.456830184249426</v>
       </c>
       <c r="F9">
-        <v>3.749898804839972</v>
+        <v>3.74043094733247</v>
       </c>
       <c r="G9">
-        <v>3.37662622151143</v>
+        <v>1.169291758842164</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.199754639320801</v>
       </c>
       <c r="I9">
-        <v>0.8304033995151983</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.8304981159890303</v>
       </c>
       <c r="K9">
-        <v>14.63732571403546</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>14.63388220131986</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.902565987748119</v>
+        <v>5.901182857826996</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.3357677388852238</v>
+        <v>0.3344775542469307</v>
       </c>
       <c r="E10">
-        <v>1.796402570446077</v>
+        <v>1.795680299281315</v>
       </c>
       <c r="F10">
-        <v>5.190285007687208</v>
+        <v>5.176065101870108</v>
       </c>
       <c r="G10">
-        <v>4.657686889058141</v>
+        <v>1.610396050181038</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>3.034132804033291</v>
       </c>
       <c r="I10">
-        <v>1.037160317023755</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1.037199490697475</v>
       </c>
       <c r="K10">
-        <v>18.21940979405525</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>18.21309920136622</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.465491952002139</v>
+        <v>6.463618154576181</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.3818891854692055</v>
+        <v>0.3803556864802005</v>
       </c>
       <c r="E11">
-        <v>1.967235033231219</v>
+        <v>1.96635804547924</v>
       </c>
       <c r="F11">
-        <v>6.018473277181158</v>
+        <v>6.001081181053678</v>
       </c>
       <c r="G11">
-        <v>5.39194327158836</v>
+        <v>1.861982200300986</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>3.513224039585282</v>
       </c>
       <c r="I11">
-        <v>1.143952056086476</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1.143930960791977</v>
       </c>
       <c r="K11">
-        <v>20.04956516135542</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>20.04112589685207</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.690126672376891</v>
+        <v>6.688013953874133</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.4012805075466161</v>
+        <v>0.3996371563663814</v>
       </c>
       <c r="E12">
-        <v>2.035592485836048</v>
+        <v>2.034641591220108</v>
       </c>
       <c r="F12">
-        <v>6.371184060053366</v>
+        <v>6.352318464617014</v>
       </c>
       <c r="G12">
-        <v>5.704278159882847</v>
+        <v>1.968773200801877</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>3.717138325022489</v>
       </c>
       <c r="I12">
-        <v>1.187227419325524</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1.187173044880254</v>
       </c>
       <c r="K12">
-        <v>20.78747675245683</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>20.77800169895147</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.641143413814689</v>
+        <v>6.639085247797027</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.3970007725819045</v>
+        <v>0.3953820899909317</v>
       </c>
       <c r="E13">
-        <v>2.02067672185261</v>
+        <v>2.019742646641902</v>
       </c>
       <c r="F13">
-        <v>6.293133222681433</v>
+        <v>6.274600670231166</v>
       </c>
       <c r="G13">
-        <v>5.635178839781304</v>
+        <v>1.945158389674759</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>3.672020456391579</v>
       </c>
       <c r="I13">
-        <v>1.177756999181042</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1.177710417688893</v>
       </c>
       <c r="K13">
-        <v>20.62617146360429</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>20.61693289613243</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.483710347103454</v>
+        <v>6.481818207523361</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.3834397720277707</v>
+        <v>0.3818976661719375</v>
       </c>
       <c r="E14">
-        <v>1.972774724003173</v>
+        <v>1.971892037891692</v>
       </c>
       <c r="F14">
-        <v>6.046586720828799</v>
+        <v>6.029080077137962</v>
       </c>
       <c r="G14">
-        <v>5.416845838481152</v>
+        <v>1.870501447746875</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>3.52947997287913</v>
       </c>
       <c r="I14">
-        <v>1.14744714340717</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1.147423574195294</v>
       </c>
       <c r="K14">
-        <v>20.10924030526007</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>20.10072151466028</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.388934520158784</v>
+        <v>6.387135934657408</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.3754147411501236</v>
+        <v>0.3739168610282917</v>
       </c>
       <c r="E15">
-        <v>1.943964044607185</v>
+        <v>1.943110473175736</v>
       </c>
       <c r="F15">
-        <v>5.901263465245876</v>
+        <v>5.884343759558135</v>
       </c>
       <c r="G15">
-        <v>5.28810567082536</v>
+        <v>1.826449928765769</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>3.445445343563705</v>
       </c>
       <c r="I15">
-        <v>1.12929260438073</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1.129281502855982</v>
       </c>
       <c r="K15">
-        <v>19.79911798014365</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>19.79100483338641</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.86711250532386</v>
+        <v>5.865755935199275</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.3329729847589675</v>
+        <v>0.3316968137123126</v>
       </c>
       <c r="E16">
-        <v>1.785663639803786</v>
+        <v>1.784949912543581</v>
       </c>
       <c r="F16">
-        <v>5.140643559145076</v>
+        <v>5.126602345145926</v>
       </c>
       <c r="G16">
-        <v>4.613630838003175</v>
+        <v>1.595275011048869</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>3.005402538525445</v>
       </c>
       <c r="I16">
-        <v>1.030509048241619</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>1.030551112655715</v>
       </c>
       <c r="K16">
-        <v>18.10498137705542</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>18.09878612689278</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.562503641132537</v>
+        <v>5.561357552322704</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.3094594838035647</v>
+        <v>0.3082982475257268</v>
       </c>
       <c r="E17">
-        <v>1.693484283503651</v>
+        <v>1.692839191378368</v>
       </c>
       <c r="F17">
-        <v>4.725752021814884</v>
+        <v>4.713159155289475</v>
       </c>
       <c r="G17">
-        <v>4.245189617970453</v>
+        <v>1.468693365478529</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2.765216018468138</v>
       </c>
       <c r="I17">
-        <v>0.9737041446907284</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.9737674696793874</v>
       </c>
       <c r="K17">
-        <v>17.12555976152493</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>17.12027935219538</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.391903005374331</v>
+        <v>5.3908621759943</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.2966654640062671</v>
+        <v>0.2955646537846661</v>
       </c>
       <c r="E18">
-        <v>1.64192126799891</v>
+        <v>1.641311267249563</v>
       </c>
       <c r="F18">
-        <v>4.502216273531417</v>
+        <v>4.490372258773419</v>
       </c>
       <c r="G18">
-        <v>4.046494024400545</v>
+        <v>1.400332143663817</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2.635756584638685</v>
       </c>
       <c r="I18">
-        <v>0.9421477268909229</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.9422204577873643</v>
       </c>
       <c r="K18">
-        <v>16.57978920226378</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>16.57496698170041</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.334846986368802</v>
+        <v>5.333839523452298</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.2924443486401742</v>
+        <v>0.2913631656098801</v>
       </c>
       <c r="E19">
-        <v>1.624685771865501</v>
+        <v>1.624087028450219</v>
       </c>
       <c r="F19">
-        <v>4.428830661126199</v>
+        <v>4.417227967519352</v>
       </c>
       <c r="G19">
-        <v>3.981232196414808</v>
+        <v>1.377862988744482</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2.593247376000647</v>
       </c>
       <c r="I19">
-        <v>0.9316338008261837</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.9317093210572267</v>
       </c>
       <c r="K19">
-        <v>16.39768102322739</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>16.39300417160666</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.594432430173185</v>
+        <v>5.593265684352502</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.3118832491450831</v>
+        <v>0.3107104025827567</v>
       </c>
       <c r="E20">
-        <v>1.703139414656576</v>
+        <v>1.702487503374627</v>
       </c>
       <c r="F20">
-        <v>4.76828150742773</v>
+        <v>4.755543748413146</v>
       </c>
       <c r="G20">
-        <v>4.282977594525065</v>
+        <v>1.481686356859043</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2.789842515245681</v>
       </c>
       <c r="I20">
-        <v>0.9796302873270051</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.9796916643292874</v>
       </c>
       <c r="K20">
-        <v>17.22791835249308</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>17.22254808650479</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.52959563439731</v>
+        <v>6.527656517627747</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.3873621360825297</v>
+        <v>0.3857981239286516</v>
       </c>
       <c r="E21">
-        <v>1.986730389770869</v>
+        <v>1.985833129551793</v>
       </c>
       <c r="F21">
-        <v>6.117774279706595</v>
+        <v>6.099975391021104</v>
       </c>
       <c r="G21">
-        <v>5.479897099089413</v>
+        <v>1.892067750486575</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>3.570640478047608</v>
       </c>
       <c r="I21">
-        <v>1.156261270236079</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1.156231301275938</v>
       </c>
       <c r="K21">
-        <v>20.25967120150278</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>20.25094873953202</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.212145750873333</v>
+        <v>7.209349641479093</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.4488062124807044</v>
+        <v>0.4468707702583004</v>
       </c>
       <c r="E22">
-        <v>2.194924583736181</v>
+        <v>2.193764731707304</v>
       </c>
       <c r="F22">
-        <v>7.244904752817092</v>
+        <v>7.222005492256926</v>
       </c>
       <c r="G22">
-        <v>6.477226629937775</v>
+        <v>2.232520013424477</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>4.221970507751905</v>
       </c>
       <c r="I22">
-        <v>1.289399676508793</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1.289239476800446</v>
       </c>
       <c r="K22">
-        <v>22.52147905011179</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>22.50904118029263</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.83911186807785</v>
+        <v>6.836824049583356</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.4144799617389481</v>
+        <v>0.4127589303978851</v>
       </c>
       <c r="E23">
-        <v>2.08099503657273</v>
+        <v>2.079990333826103</v>
       </c>
       <c r="F23">
-        <v>6.61260151058454</v>
+        <v>6.592679220583108</v>
       </c>
       <c r="G23">
-        <v>5.917951430675686</v>
+        <v>2.041757585065938</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>3.856670150818985</v>
       </c>
       <c r="I23">
-        <v>1.216151813849592</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1.216071710653686</v>
       </c>
       <c r="K23">
-        <v>21.2795157023159</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>21.2692815995124</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.579983588474022</v>
+        <v>5.578826229290314</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.3107852541086231</v>
+        <v>0.3096176736951719</v>
       </c>
       <c r="E24">
-        <v>1.698769950984925</v>
+        <v>1.698121135820756</v>
       </c>
       <c r="F24">
-        <v>4.749008128085137</v>
+        <v>4.736336128774411</v>
       </c>
       <c r="G24">
-        <v>4.265853551203307</v>
+        <v>1.475798746386531</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2.778682519537583</v>
       </c>
       <c r="I24">
-        <v>0.9769477112887586</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.9770099774502086</v>
       </c>
       <c r="K24">
-        <v>17.1815891279312</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>17.17625969091614</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.396708449913717</v>
+        <v>4.39614016616224</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2268764519040758</v>
+        <v>0.226082325524203</v>
       </c>
       <c r="E25">
-        <v>1.341840245035016</v>
+        <v>1.341399223406171</v>
       </c>
       <c r="F25">
-        <v>3.315686237298223</v>
+        <v>3.30749983296198</v>
       </c>
       <c r="G25">
-        <v>2.989015364001801</v>
+        <v>1.035131907533298</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.947861810591249</v>
       </c>
       <c r="I25">
-        <v>0.7614173482068054</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.7615184585136561</v>
       </c>
       <c r="K25">
-        <v>13.43031019123939</v>
+        <v>0</v>
       </c>
       <c r="L25">
+        <v>13.42755663512941</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_26/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_26/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.600558228112789</v>
+        <v>3.903414137097514</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1757641971476431</v>
+        <v>0.8610792315841991</v>
       </c>
       <c r="E2">
-        <v>1.102100870928624</v>
+        <v>0.5982721588149644</v>
       </c>
       <c r="F2">
-        <v>2.494668424122295</v>
+        <v>5.42365969495296</v>
       </c>
       <c r="G2">
-        <v>0.7811255305784925</v>
+        <v>0.0007648233173544627</v>
       </c>
       <c r="H2">
-        <v>1.474383181624518</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.6206432788043159</v>
+        <v>0.577800536183787</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.94455647359524</v>
+        <v>2.950718050463536</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0.9263076832970647</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.088642631272933</v>
+        <v>3.409623544631472</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1455880844660697</v>
+        <v>0.7285697817509629</v>
       </c>
       <c r="E3">
-        <v>0.9482273461464814</v>
+        <v>0.5081143064107394</v>
       </c>
       <c r="F3">
-        <v>2.030712561452091</v>
+        <v>4.829119786464844</v>
       </c>
       <c r="G3">
-        <v>0.6344083524578394</v>
+        <v>0.0007840972902897123</v>
       </c>
       <c r="H3">
-        <v>1.203678389356909</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.5314999000564313</v>
+        <v>0.495609815071262</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.35925153794696</v>
+        <v>2.537813585677526</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>1.014857582837049</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.783508421618365</v>
+        <v>3.117259777928723</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1283735774353971</v>
+        <v>0.6509309203288751</v>
       </c>
       <c r="E4">
-        <v>0.8565041142213232</v>
+        <v>0.4548744033641228</v>
       </c>
       <c r="F4">
-        <v>1.775874125727825</v>
+        <v>4.487131814086922</v>
       </c>
       <c r="G4">
-        <v>0.55305137175543</v>
+        <v>0.0007960353203838555</v>
       </c>
       <c r="H4">
-        <v>1.054793562062528</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.4788813568724635</v>
+        <v>0.4468115420083905</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>8.418002906581023</v>
+        <v>2.293925890063861</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>1.071132641815264</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.660980710065587</v>
+        <v>3.000413754211024</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1216193199368121</v>
+        <v>0.6200566259365985</v>
       </c>
       <c r="E5">
-        <v>0.8196660332282875</v>
+        <v>0.4336076084419389</v>
       </c>
       <c r="F5">
-        <v>1.678132402404032</v>
+        <v>4.352697664309687</v>
       </c>
       <c r="G5">
-        <v>0.5216633875267718</v>
+        <v>0.0008009380712918546</v>
       </c>
       <c r="H5">
-        <v>0.9976445151488633</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.4578566853351944</v>
+        <v>0.427259439173497</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>8.040704651411914</v>
+        <v>2.19654476636984</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>1.094524099605174</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.640732261726328</v>
+        <v>2.981138925225821</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1205117912648035</v>
+        <v>0.6149716603160016</v>
       </c>
       <c r="E6">
-        <v>0.8135778304420853</v>
+        <v>0.4300994903230659</v>
       </c>
       <c r="F6">
-        <v>1.662235018399187</v>
+        <v>4.330649905968016</v>
       </c>
       <c r="G6">
-        <v>0.5165473018540609</v>
+        <v>0.0008017547678715866</v>
       </c>
       <c r="H6">
-        <v>0.9883467620633724</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.4543879094157148</v>
+        <v>0.4240307552792473</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.978387373868287</v>
+        <v>2.180484893629028</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>1.09843541998826</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.781849192447282</v>
+        <v>3.115675176517186</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1282815117192797</v>
+        <v>0.6505116501999169</v>
       </c>
       <c r="E7">
-        <v>0.8560052959805944</v>
+        <v>0.4545859790076676</v>
       </c>
       <c r="F7">
-        <v>1.7745328972659</v>
+        <v>4.485299877809638</v>
       </c>
       <c r="G7">
-        <v>0.5526214114965455</v>
+        <v>0.0007961012730230391</v>
       </c>
       <c r="H7">
-        <v>1.054009535617737</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.478596252179706</v>
+        <v>0.4465466070037252</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>8.412891265213318</v>
+        <v>2.292604957483661</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>1.071446273416093</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.421812623629705</v>
+        <v>3.730627526097294</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1650393732684421</v>
+        <v>0.8145036708768316</v>
       </c>
       <c r="E8">
-        <v>1.048369926693596</v>
+        <v>0.5666777101236349</v>
       </c>
       <c r="F8">
-        <v>2.327480827206458</v>
+        <v>5.213302681197291</v>
       </c>
       <c r="G8">
-        <v>0.7284341742485765</v>
+        <v>0.0007714552394291196</v>
       </c>
       <c r="H8">
-        <v>1.376879780358436</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.589390089367761</v>
+        <v>0.5490584012847393</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.39004697049489</v>
+        <v>2.806072500201594</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>0.9564311512976431</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.779404134684114</v>
+        <v>5.046527648081621</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2519302917276605</v>
+        <v>1.175507666329906</v>
       </c>
       <c r="E9">
-        <v>1.456830184249426</v>
+        <v>0.8092568065085572</v>
       </c>
       <c r="F9">
-        <v>3.74043094733247</v>
+        <v>6.873303260169905</v>
       </c>
       <c r="G9">
-        <v>1.169291758842164</v>
+        <v>0.0007232756798477681</v>
       </c>
       <c r="H9">
-        <v>2.199754639320801</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.8304981159890303</v>
+        <v>0.7682593378404192</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>14.63388220131986</v>
+        <v>3.913291700373179</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>0.7471133409929358</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.901182857826996</v>
+        <v>6.124941464000131</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.3344775542469307</v>
+        <v>1.483555795437155</v>
       </c>
       <c r="E10">
-        <v>1.795680299281315</v>
+        <v>1.012740797847002</v>
       </c>
       <c r="F10">
-        <v>5.176065101870108</v>
+        <v>8.327006729003301</v>
       </c>
       <c r="G10">
-        <v>1.610396050181038</v>
+        <v>0.0006867098415159756</v>
       </c>
       <c r="H10">
-        <v>3.034132804033291</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1.037199490697475</v>
+        <v>0.9498494552893106</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>18.21309920136622</v>
+        <v>4.832733551277499</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>0.6052290175186208</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.463618154576181</v>
+        <v>6.654699110021397</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.3803556864802005</v>
+        <v>1.639515642437829</v>
       </c>
       <c r="E11">
-        <v>1.96635804547924</v>
+        <v>1.1147606147684</v>
       </c>
       <c r="F11">
-        <v>6.001081181053678</v>
+        <v>9.070579279470792</v>
       </c>
       <c r="G11">
-        <v>1.861982200300986</v>
+        <v>0.0006693909737753521</v>
       </c>
       <c r="H11">
-        <v>3.513224039585282</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1.143930960791977</v>
+        <v>1.040226721238298</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>20.04112589685207</v>
+        <v>5.289329121480591</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>0.5439236465537078</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.688013953874133</v>
+        <v>6.862809150507815</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.3996371563663814</v>
+        <v>1.701692701464367</v>
       </c>
       <c r="E12">
-        <v>2.034641591220108</v>
+        <v>1.155266023328437</v>
       </c>
       <c r="F12">
-        <v>6.352318464617014</v>
+        <v>9.367970430866421</v>
       </c>
       <c r="G12">
-        <v>1.968773200801877</v>
+        <v>0.0006626793572527765</v>
       </c>
       <c r="H12">
-        <v>3.717138325022489</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.187173044880254</v>
+        <v>1.075997105605154</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>20.77800169895147</v>
+        <v>5.469693589611268</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>0.521255498014952</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.639085247797027</v>
+        <v>6.817617171735151</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.3953820899909317</v>
+        <v>1.688145604837217</v>
       </c>
       <c r="E13">
-        <v>2.019742646641902</v>
+        <v>1.146448518686057</v>
       </c>
       <c r="F13">
-        <v>6.274600670231166</v>
+        <v>9.303136703102382</v>
       </c>
       <c r="G13">
-        <v>1.945158389674759</v>
+        <v>0.0006641327734798885</v>
       </c>
       <c r="H13">
-        <v>3.672020456391579</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1.177710417688893</v>
+        <v>1.068215620365635</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>20.61693289613243</v>
+        <v>5.430476935499655</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>0.5261115389736801</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.481818207523361</v>
+        <v>6.671656670349137</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.3818976661719375</v>
+        <v>1.644562344883411</v>
       </c>
       <c r="E14">
-        <v>1.971892037891692</v>
+        <v>1.118051740219656</v>
       </c>
       <c r="F14">
-        <v>6.029080077137962</v>
+        <v>9.094700045458126</v>
       </c>
       <c r="G14">
-        <v>1.870501447746875</v>
+        <v>0.0006688422756311319</v>
       </c>
       <c r="H14">
-        <v>3.52947997287913</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.147423574195294</v>
+        <v>1.043135443343914</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>20.10072151466028</v>
+        <v>5.304004161332671</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0.5420471897495531</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.387135934657408</v>
+        <v>6.583296849004967</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.3739168610282917</v>
+        <v>1.618303620623607</v>
       </c>
       <c r="E15">
-        <v>1.943110473175736</v>
+        <v>1.100920783581913</v>
       </c>
       <c r="F15">
-        <v>5.884343759558135</v>
+        <v>8.969232560315874</v>
       </c>
       <c r="G15">
-        <v>1.826449928765769</v>
+        <v>0.0006717049941438345</v>
       </c>
       <c r="H15">
-        <v>3.445445343563705</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1.129281502855982</v>
+        <v>1.027990410610585</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>19.79100483338641</v>
+        <v>5.227579297189777</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0.551882376964663</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.865755935199275</v>
+        <v>6.091252819996896</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.3316968137123126</v>
+        <v>1.473746305171005</v>
       </c>
       <c r="E16">
-        <v>1.784949912543581</v>
+        <v>1.00630298830545</v>
       </c>
       <c r="F16">
-        <v>5.126602345145926</v>
+        <v>8.280374009572739</v>
       </c>
       <c r="G16">
-        <v>1.595275011048869</v>
+        <v>0.0006878236854236453</v>
       </c>
       <c r="H16">
-        <v>3.005402538525445</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>1.030551112655715</v>
+        <v>0.9441321980820305</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>18.09878612689278</v>
+        <v>4.803814827646079</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>0.6093069314825073</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.561357552322704</v>
+        <v>5.800556415045662</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.3082982475257268</v>
+        <v>1.389618177520589</v>
       </c>
       <c r="E17">
-        <v>1.692839191378368</v>
+        <v>0.9509833143006006</v>
       </c>
       <c r="F17">
-        <v>4.713159155289475</v>
+        <v>7.881234527313751</v>
       </c>
       <c r="G17">
-        <v>1.468693365478529</v>
+        <v>0.0006975038939259971</v>
       </c>
       <c r="H17">
-        <v>2.765216018468138</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.9737674696793874</v>
+        <v>0.8949320200986079</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>17.12027935219538</v>
+        <v>4.554830009583725</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>0.6454138120358266</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.3908621759943</v>
+        <v>5.636900398108935</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.2955646537846661</v>
+        <v>1.342654301552699</v>
       </c>
       <c r="E18">
-        <v>1.641311267249563</v>
+        <v>0.9200149078427273</v>
       </c>
       <c r="F18">
-        <v>4.490372258773419</v>
+        <v>7.65909739037744</v>
       </c>
       <c r="G18">
-        <v>1.400332143663817</v>
+        <v>0.0007030114623482101</v>
       </c>
       <c r="H18">
-        <v>2.635756584638685</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.9422204577873643</v>
+        <v>0.8673314893217849</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>16.57496698170041</v>
+        <v>4.415078677196561</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>0.6664802121494766</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.333839523452298</v>
+        <v>5.582052045589137</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.2913631656098801</v>
+        <v>1.326977334145653</v>
       </c>
       <c r="E19">
-        <v>1.624087028450219</v>
+        <v>0.9096630869266562</v>
       </c>
       <c r="F19">
-        <v>4.417227967519352</v>
+        <v>7.58506527774918</v>
       </c>
       <c r="G19">
-        <v>1.377862988744482</v>
+        <v>0.0007048672252974563</v>
       </c>
       <c r="H19">
-        <v>2.593247376000647</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.9317093210572267</v>
+        <v>0.8580959394372627</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>16.39300417160666</v>
+        <v>4.368307561713834</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>0.6736621985213489</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.593265684352502</v>
+        <v>5.831123343165814</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.3107104025827567</v>
+        <v>1.398421304200838</v>
       </c>
       <c r="E20">
-        <v>1.702487503374627</v>
+        <v>0.9567811508737094</v>
       </c>
       <c r="F20">
-        <v>4.755543748413146</v>
+        <v>7.922929850122557</v>
       </c>
       <c r="G20">
-        <v>1.481686356859043</v>
+        <v>0.0006964799826523469</v>
       </c>
       <c r="H20">
-        <v>2.789842515245681</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.9796916643292874</v>
+        <v>0.9000946522578914</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>17.22254808650479</v>
+        <v>4.580965238357464</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>0.6415387626020213</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.527656517627747</v>
+        <v>6.714306516837837</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.3857981239286516</v>
+        <v>1.657270619826875</v>
       </c>
       <c r="E21">
-        <v>1.985833129551793</v>
+        <v>1.12633652192784</v>
       </c>
       <c r="F21">
-        <v>6.099975391021104</v>
+        <v>9.155453605572404</v>
       </c>
       <c r="G21">
-        <v>1.892067750486575</v>
+        <v>0.0006674636956578794</v>
       </c>
       <c r="H21">
-        <v>3.570640478047608</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1.156231301275938</v>
+        <v>1.050455764199711</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>20.25094873953202</v>
+        <v>5.340930132178698</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>0.5373508613073881</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.209349641479093</v>
+        <v>7.33675736019012</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.4468707702583004</v>
+        <v>1.845324838917435</v>
       </c>
       <c r="E22">
-        <v>2.193764731707304</v>
+        <v>1.248496696583189</v>
       </c>
       <c r="F22">
-        <v>7.222005492256926</v>
+        <v>10.0564342072708</v>
       </c>
       <c r="G22">
-        <v>2.232520013424477</v>
+        <v>0.0006475608188020972</v>
       </c>
       <c r="H22">
-        <v>4.221970507751905</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1.289239476800446</v>
+        <v>1.158100028173862</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>22.50904118029263</v>
+        <v>5.882707066307262</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>0.4725089827266231</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.836824049583356</v>
+        <v>6.999564265933827</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.4127589303978851</v>
+        <v>1.742842403768435</v>
       </c>
       <c r="E23">
-        <v>2.079990333826103</v>
+        <v>1.182023387770499</v>
       </c>
       <c r="F23">
-        <v>6.592679220583108</v>
+        <v>9.565023224114981</v>
       </c>
       <c r="G23">
-        <v>2.041757585065938</v>
+        <v>0.000658294264822998</v>
       </c>
       <c r="H23">
-        <v>3.856670150818985</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1.216071710653686</v>
+        <v>1.09959294862</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>21.2692815995124</v>
+        <v>5.588538408962165</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>0.5067831103583202</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.578826229290314</v>
+        <v>5.817293358639404</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.3096176736951719</v>
+        <v>1.39443710012543</v>
       </c>
       <c r="E24">
-        <v>1.698121135820756</v>
+        <v>0.9541573815218953</v>
       </c>
       <c r="F24">
-        <v>4.736336128774411</v>
+        <v>7.904056828086055</v>
       </c>
       <c r="G24">
-        <v>1.475798746386531</v>
+        <v>0.000696943068787369</v>
       </c>
       <c r="H24">
-        <v>2.778682519537583</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.9770099774502086</v>
+        <v>0.8977585211747936</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>17.17625969091614</v>
+        <v>4.569139066485207</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>0.6432897185400321</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.39614016616224</v>
+        <v>4.67487841587922</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.226082325524203</v>
+        <v>1.0720136077652</v>
       </c>
       <c r="E25">
-        <v>1.341399223406171</v>
+        <v>0.7402196757654167</v>
       </c>
       <c r="F25">
-        <v>3.30749983296198</v>
+        <v>6.391339869072766</v>
       </c>
       <c r="G25">
-        <v>1.035131907533298</v>
+        <v>0.0007364024025996477</v>
       </c>
       <c r="H25">
-        <v>1.947861810591249</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.7615184585136561</v>
+        <v>0.7062038605390626</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>13.42755663512941</v>
+        <v>3.59914549314567</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0.8018254571961236</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_26/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_26/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.903414137097514</v>
+        <v>0.7429350662719685</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.8610792315841991</v>
+        <v>0.1523127439126597</v>
       </c>
       <c r="E2">
-        <v>0.5982721588149644</v>
+        <v>0.03797725134904795</v>
       </c>
       <c r="F2">
-        <v>5.42365969495296</v>
+        <v>7.697674868715097</v>
       </c>
       <c r="G2">
-        <v>0.0007648233173544627</v>
+        <v>0.0008832380787637548</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.577800536183787</v>
+        <v>0.182770738363363</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.140778247036593</v>
       </c>
       <c r="L2">
-        <v>2.950718050463536</v>
+        <v>0.1178732547793189</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.1653115319250773</v>
       </c>
       <c r="N2">
-        <v>0.9263076832970647</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.409623544631472</v>
+        <v>0.6831904178511365</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.7285697817509629</v>
+        <v>0.1328733024787141</v>
       </c>
       <c r="E3">
-        <v>0.5081143064107394</v>
+        <v>0.03615612011915026</v>
       </c>
       <c r="F3">
-        <v>4.829119786464844</v>
+        <v>7.049217977649647</v>
       </c>
       <c r="G3">
-        <v>0.0007840972902897123</v>
+        <v>0.0008926795092491321</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.495609815071262</v>
+        <v>0.174852448478763</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.9949296973318553</v>
       </c>
       <c r="L3">
-        <v>2.537813585677526</v>
+        <v>0.1062475145973139</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1512365676731626</v>
       </c>
       <c r="N3">
-        <v>1.014857582837049</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.117259777928723</v>
+        <v>0.6479576107943217</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.6509309203288751</v>
+        <v>0.1210962542621559</v>
       </c>
       <c r="E4">
-        <v>0.4548744033641228</v>
+        <v>0.03505395238588704</v>
       </c>
       <c r="F4">
-        <v>4.487131814086922</v>
+        <v>6.657822446093718</v>
       </c>
       <c r="G4">
-        <v>0.0007960353203838555</v>
+        <v>0.0008986266280453275</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.4468115420083905</v>
+        <v>0.170032576884509</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.9083847474799143</v>
       </c>
       <c r="L4">
-        <v>2.293925890063861</v>
+        <v>0.09955897160025984</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1430047365536566</v>
       </c>
       <c r="N4">
-        <v>1.071132641815264</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.000413754211024</v>
+        <v>0.6339383252473283</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.6200566259365985</v>
+        <v>0.1163300426026979</v>
       </c>
       <c r="E5">
-        <v>0.4336076084419389</v>
+        <v>0.03460768581727081</v>
       </c>
       <c r="F5">
-        <v>4.352697664309687</v>
+        <v>6.499801160100731</v>
       </c>
       <c r="G5">
-        <v>0.0008009380712918546</v>
+        <v>0.0009010897261437301</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.427259439173497</v>
+        <v>0.1680749295289452</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.8737937182243627</v>
       </c>
       <c r="L5">
-        <v>2.19654476636984</v>
+        <v>0.09693685037110811</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1397455416380247</v>
       </c>
       <c r="N5">
-        <v>1.094524099605174</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.981138925225821</v>
+        <v>0.6316301390805563</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.6149716603160016</v>
+        <v>0.1155404202918362</v>
       </c>
       <c r="E6">
-        <v>0.4300994903230659</v>
+        <v>0.03453372577531333</v>
       </c>
       <c r="F6">
-        <v>4.330649905968016</v>
+        <v>6.473644754884475</v>
       </c>
       <c r="G6">
-        <v>0.0008017547678715866</v>
+        <v>0.0009015011653254753</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.4240307552792473</v>
+        <v>0.1677501434197488</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.8680885899542261</v>
       </c>
       <c r="L6">
-        <v>2.180484893629028</v>
+        <v>0.09650743757013913</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.139209897259029</v>
       </c>
       <c r="N6">
-        <v>1.09843541998826</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.115675176517186</v>
+        <v>0.6477672050892522</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.6505116501999169</v>
+        <v>0.1210318504528658</v>
       </c>
       <c r="E7">
-        <v>0.4545859790076676</v>
+        <v>0.03504792367397958</v>
       </c>
       <c r="F7">
-        <v>4.485299877809638</v>
+        <v>6.655685624401798</v>
       </c>
       <c r="G7">
-        <v>0.0007961012730230391</v>
+        <v>0.000898659683438625</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.4465466070037252</v>
+        <v>0.1700061542110269</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.90791560044633</v>
       </c>
       <c r="L7">
-        <v>2.292604957483661</v>
+        <v>0.09952320165415784</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1429604057207179</v>
       </c>
       <c r="N7">
-        <v>1.071446273416093</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.730627526097294</v>
+        <v>0.7220174189264412</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.8145036708768316</v>
+        <v>0.1455727094479613</v>
       </c>
       <c r="E8">
-        <v>0.5666777101236349</v>
+        <v>0.03734527118122344</v>
       </c>
       <c r="F8">
-        <v>5.213302681197291</v>
+        <v>7.472543024476352</v>
       </c>
       <c r="G8">
-        <v>0.0007714552394291196</v>
+        <v>0.000886463515839381</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.5490584012847393</v>
+        <v>0.1800292296720194</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1.089815620586336</v>
       </c>
       <c r="L8">
-        <v>2.806072500201594</v>
+        <v>0.1137653224955812</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.1603684112860257</v>
       </c>
       <c r="N8">
-        <v>0.9564311512976431</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.046527648081621</v>
+        <v>0.8804546699498417</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1.175507666329906</v>
+        <v>0.1953035444313258</v>
       </c>
       <c r="E9">
-        <v>0.8092568065085572</v>
+        <v>0.04203626176314312</v>
       </c>
       <c r="F9">
-        <v>6.873303260169905</v>
+        <v>9.139249781440242</v>
       </c>
       <c r="G9">
-        <v>0.0007232756798477681</v>
+        <v>0.0008636442977434341</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.7682593378404192</v>
+        <v>0.2002227293427268</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.474372950753093</v>
       </c>
       <c r="L9">
-        <v>3.913291700373179</v>
+        <v>0.1457452275579882</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.1981533857315796</v>
       </c>
       <c r="N9">
-        <v>0.7471133409929358</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.124941464000131</v>
+        <v>1.006751121323902</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.483555795437155</v>
+        <v>0.2333611683002346</v>
       </c>
       <c r="E10">
-        <v>1.012740797847002</v>
+        <v>0.0456905298975423</v>
       </c>
       <c r="F10">
-        <v>8.327006729003301</v>
+        <v>10.42085033042713</v>
       </c>
       <c r="G10">
-        <v>0.0006867098415159756</v>
+        <v>0.0008474031443874708</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.9498494552893106</v>
+        <v>0.2157111191237711</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.780189625331019</v>
       </c>
       <c r="L10">
-        <v>4.832733551277499</v>
+        <v>0.1724742166774433</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.228754996168842</v>
       </c>
       <c r="N10">
-        <v>0.6052290175186208</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.654699110021397</v>
+        <v>1.066887869173684</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1.639515642437829</v>
+        <v>0.2511442320084711</v>
       </c>
       <c r="E11">
-        <v>1.1147606147684</v>
+        <v>0.04742338853170125</v>
       </c>
       <c r="F11">
-        <v>9.070579279470792</v>
+        <v>11.02078793517893</v>
       </c>
       <c r="G11">
-        <v>0.0006693909737753521</v>
+        <v>0.0008400913086374499</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1.040226721238298</v>
+        <v>0.2229838035604033</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.926015408624153</v>
       </c>
       <c r="L11">
-        <v>5.289329121480591</v>
+        <v>0.1855363643248609</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.2434535180824504</v>
       </c>
       <c r="N11">
-        <v>0.5439236465537078</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.862809150507815</v>
+        <v>1.090097251007364</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1.701692701464367</v>
+        <v>0.2579592922005531</v>
       </c>
       <c r="E12">
-        <v>1.155266023328437</v>
+        <v>0.04809224215215391</v>
       </c>
       <c r="F12">
-        <v>9.367970430866421</v>
+        <v>11.25083629423756</v>
       </c>
       <c r="G12">
-        <v>0.0006626793572527765</v>
+        <v>0.0008373299336033909</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.075997105605154</v>
+        <v>0.2257787358958296</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.982360893272158</v>
       </c>
       <c r="L12">
-        <v>5.469693589611268</v>
+        <v>0.1906321256534369</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.2491468069271328</v>
       </c>
       <c r="N12">
-        <v>0.521255498014952</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.817617171735151</v>
+        <v>1.085078379476414</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1.688145604837217</v>
+        <v>0.2564877125986271</v>
       </c>
       <c r="E13">
-        <v>1.146448518686057</v>
+        <v>0.04794758511688446</v>
       </c>
       <c r="F13">
-        <v>9.303136703102382</v>
+        <v>11.2011563736533</v>
       </c>
       <c r="G13">
-        <v>0.0006641327734798885</v>
+        <v>0.0008379243743820517</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1.068215620365635</v>
+        <v>0.2251748318966555</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.970173084449243</v>
       </c>
       <c r="L13">
-        <v>5.430476935499655</v>
+        <v>0.1895276749627328</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.2479147256017633</v>
       </c>
       <c r="N13">
-        <v>0.5261115389736801</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.671656670349137</v>
+        <v>1.068788246714604</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1.644562344883411</v>
+        <v>0.251703204867411</v>
       </c>
       <c r="E14">
-        <v>1.118051740219656</v>
+        <v>0.04747814596680211</v>
       </c>
       <c r="F14">
-        <v>9.094700045458126</v>
+        <v>11.03965406413465</v>
       </c>
       <c r="G14">
-        <v>0.0006688422756311319</v>
+        <v>0.0008398640009335985</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.043135443343914</v>
+        <v>0.2232128722892917</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.930627453334466</v>
       </c>
       <c r="L14">
-        <v>5.304004161332671</v>
+        <v>0.1859524790428964</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.2439192614421941</v>
       </c>
       <c r="N14">
-        <v>0.5420471897495531</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.583296849004967</v>
+        <v>1.058868595175596</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1.618303620623607</v>
+        <v>0.2487835310578959</v>
       </c>
       <c r="E15">
-        <v>1.100920783581913</v>
+        <v>0.04719233097448949</v>
       </c>
       <c r="F15">
-        <v>8.969232560315874</v>
+        <v>10.94111608777183</v>
       </c>
       <c r="G15">
-        <v>0.0006717049941438345</v>
+        <v>0.0008410529372138505</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1.027990410610585</v>
+        <v>0.2220167117548648</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.906556177291691</v>
       </c>
       <c r="L15">
-        <v>5.227579297189777</v>
+        <v>0.1837826549040074</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.2414889943193899</v>
       </c>
       <c r="N15">
-        <v>0.551882376964663</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.091252819996896</v>
+        <v>1.002879256055081</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1.473746305171005</v>
+        <v>0.2322095713544741</v>
       </c>
       <c r="E16">
-        <v>1.00630298830545</v>
+        <v>0.04557890868519188</v>
       </c>
       <c r="F16">
-        <v>8.280374009572739</v>
+        <v>10.38201921572934</v>
       </c>
       <c r="G16">
-        <v>0.0006878236854236453</v>
+        <v>0.0008478822357116737</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.9441321980820305</v>
+        <v>0.2152410804818956</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.770807707245069</v>
       </c>
       <c r="L16">
-        <v>4.803814827646079</v>
+        <v>0.1716403540625322</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.2278113354871643</v>
       </c>
       <c r="N16">
-        <v>0.6093069314825073</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.800556415045662</v>
+        <v>0.969253232498005</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1.389618177520589</v>
+        <v>0.2221714364228831</v>
       </c>
       <c r="E17">
-        <v>0.9509833143006006</v>
+        <v>0.04460885642627321</v>
       </c>
       <c r="F17">
-        <v>7.881234527313751</v>
+        <v>10.04365685419864</v>
       </c>
       <c r="G17">
-        <v>0.0006975038939259971</v>
+        <v>0.0008520889789305966</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.8949320200986079</v>
+        <v>0.211148108131912</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.689355375565697</v>
       </c>
       <c r="L17">
-        <v>4.554830009583725</v>
+        <v>0.1644357842815083</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.2196300687831467</v>
       </c>
       <c r="N17">
-        <v>0.6454138120358266</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.636900398108935</v>
+        <v>0.9501616347409367</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1.342654301552699</v>
+        <v>0.2164411529512194</v>
       </c>
       <c r="E18">
-        <v>0.9200149078427273</v>
+        <v>0.04405737285220734</v>
       </c>
       <c r="F18">
-        <v>7.65909739037744</v>
+        <v>9.850604572880115</v>
       </c>
       <c r="G18">
-        <v>0.0007030114623482101</v>
+        <v>0.0008545160081418949</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.8673314893217849</v>
+        <v>0.2088147378902967</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.643126770552925</v>
       </c>
       <c r="L18">
-        <v>4.415078677196561</v>
+        <v>0.1603755770771187</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.2149965816561732</v>
       </c>
       <c r="N18">
-        <v>0.6664802121494766</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.582052045589137</v>
+        <v>0.9437389015584472</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1.326977334145653</v>
+        <v>0.2145080504581927</v>
       </c>
       <c r="E19">
-        <v>0.9096630869266562</v>
+        <v>0.04387168994093571</v>
       </c>
       <c r="F19">
-        <v>7.58506527774918</v>
+        <v>9.785496924543736</v>
       </c>
       <c r="G19">
-        <v>0.0007048672252974563</v>
+        <v>0.0008553391331490257</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.8580959394372627</v>
+        <v>0.2080280374824071</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.627576640395972</v>
       </c>
       <c r="L19">
-        <v>4.368307561713834</v>
+        <v>0.1590146798282746</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.2134397190373001</v>
       </c>
       <c r="N19">
-        <v>0.6736621985213489</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.831123343165814</v>
+        <v>0.9728066405215259</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1.398421304200838</v>
+        <v>0.2232354315926699</v>
       </c>
       <c r="E20">
-        <v>0.9567811508737094</v>
+        <v>0.0447114340781658</v>
       </c>
       <c r="F20">
-        <v>7.922929850122557</v>
+        <v>10.07951121413396</v>
       </c>
       <c r="G20">
-        <v>0.0006964799826523469</v>
+        <v>0.0008516404197939381</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.9000946522578914</v>
+        <v>0.2115816030998801</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.697960796740176</v>
       </c>
       <c r="L20">
-        <v>4.580965238357464</v>
+        <v>0.1651939305831149</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.2204934049254028</v>
       </c>
       <c r="N20">
-        <v>0.6415387626020213</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.714306516837837</v>
+        <v>1.073560756301703</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1.657270619826875</v>
+        <v>0.2531062171084102</v>
       </c>
       <c r="E21">
-        <v>1.12633652192784</v>
+        <v>0.04761566600511635</v>
       </c>
       <c r="F21">
-        <v>9.155453605572404</v>
+        <v>11.08700973769533</v>
       </c>
       <c r="G21">
-        <v>0.0006674636956578794</v>
+        <v>0.0008392941136928654</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1.050455764199711</v>
+        <v>0.2237879645526526</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.942211059686258</v>
       </c>
       <c r="L21">
-        <v>5.340930132178698</v>
+        <v>0.1869983757002984</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.2450892380966962</v>
       </c>
       <c r="N21">
-        <v>0.5373508613073881</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.33675736019012</v>
+        <v>1.141984751698317</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1.845324838917435</v>
+        <v>0.2731081858498641</v>
       </c>
       <c r="E22">
-        <v>1.248496696583189</v>
+        <v>0.04958900600085858</v>
       </c>
       <c r="F22">
-        <v>10.0564342072708</v>
+        <v>11.7624105447988</v>
       </c>
       <c r="G22">
-        <v>0.0006475608188020972</v>
+        <v>0.0008312665753955382</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1.158100028173862</v>
+        <v>0.2320088390465642</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>2.108488225290472</v>
       </c>
       <c r="L22">
-        <v>5.882707066307262</v>
+        <v>0.2021309550033408</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.2619146913181609</v>
       </c>
       <c r="N22">
-        <v>0.4725089827266231</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.999564265933827</v>
+        <v>1.105211263354846</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1.742842403768435</v>
+        <v>0.2623839709901432</v>
       </c>
       <c r="E23">
-        <v>1.182023387770499</v>
+        <v>0.04852796895241784</v>
       </c>
       <c r="F23">
-        <v>9.565023224114981</v>
+        <v>11.40022859332009</v>
       </c>
       <c r="G23">
-        <v>0.000658294264822998</v>
+        <v>0.0008355485168345206</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1.09959294862</v>
+        <v>0.2275958709613306</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>2.019075918322812</v>
       </c>
       <c r="L23">
-        <v>5.588538408962165</v>
+        <v>0.193966463187877</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.2528602643244646</v>
       </c>
       <c r="N23">
-        <v>0.5067831103583202</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.817293358639404</v>
+        <v>0.9711993995671548</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1.39443710012543</v>
+        <v>0.2227542733591577</v>
       </c>
       <c r="E24">
-        <v>0.9541573815218953</v>
+        <v>0.04466503955612744</v>
       </c>
       <c r="F24">
-        <v>7.904056828086055</v>
+        <v>10.06329689005636</v>
       </c>
       <c r="G24">
-        <v>0.000696943068787369</v>
+        <v>0.0008518431865027071</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.8977585211747936</v>
+        <v>0.2113855591673399</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.694068430527011</v>
       </c>
       <c r="L24">
-        <v>4.569139066485207</v>
+        <v>0.1648509193050529</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.2201028736609416</v>
       </c>
       <c r="N24">
-        <v>0.6432897185400321</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.67487841587922</v>
+        <v>0.8360198070257923</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1.0720136077652</v>
+        <v>0.1816258992346462</v>
       </c>
       <c r="E25">
-        <v>0.7402196757654167</v>
+        <v>0.04073835832172712</v>
       </c>
       <c r="F25">
-        <v>6.391339869072766</v>
+        <v>8.679726618971074</v>
       </c>
       <c r="G25">
-        <v>0.0007364024025996477</v>
+        <v>0.0008697140219580383</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.7062038605390626</v>
+        <v>0.1946711979188009</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.366753814836869</v>
       </c>
       <c r="L25">
-        <v>3.59914549314567</v>
+        <v>0.1365870189051392</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.187481683883572</v>
       </c>
       <c r="N25">
-        <v>0.8018254571961236</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_26/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_26/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7429350662719685</v>
+        <v>1.390522308914854</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1523127439126597</v>
+        <v>0.0474846538192395</v>
       </c>
       <c r="E2">
-        <v>0.03797725134904795</v>
+        <v>0.06383708548180067</v>
       </c>
       <c r="F2">
-        <v>7.697674868715097</v>
+        <v>7.107209821577129</v>
       </c>
       <c r="G2">
-        <v>0.0008832380787637548</v>
+        <v>0.002704054131961699</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,16 +445,16 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.182770738363363</v>
+        <v>0.2222422812520186</v>
       </c>
       <c r="K2">
-        <v>1.140778247036593</v>
+        <v>1.217257839327175</v>
       </c>
       <c r="L2">
-        <v>0.1178732547793189</v>
+        <v>0.277192302064627</v>
       </c>
       <c r="M2">
-        <v>0.1653115319250773</v>
+        <v>0.3371880716758398</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6831904178511365</v>
+        <v>1.388129126599779</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1328733024787141</v>
+        <v>0.04154735179352542</v>
       </c>
       <c r="E3">
-        <v>0.03615612011915026</v>
+        <v>0.06316964206907283</v>
       </c>
       <c r="F3">
-        <v>7.049217977649647</v>
+        <v>6.916827027181171</v>
       </c>
       <c r="G3">
-        <v>0.0008926795092491321</v>
+        <v>0.002709636068185649</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,16 +492,16 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.174852448478763</v>
+        <v>0.2192234540388043</v>
       </c>
       <c r="K3">
-        <v>0.9949296973318553</v>
+        <v>1.200766569114137</v>
       </c>
       <c r="L3">
-        <v>0.1062475145973139</v>
+        <v>0.279273351339711</v>
       </c>
       <c r="M3">
-        <v>0.1512365676731626</v>
+        <v>0.3376836515447614</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6479576107943217</v>
+        <v>1.38750667872975</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1210962542621559</v>
+        <v>0.03789072640053348</v>
       </c>
       <c r="E4">
-        <v>0.03505395238588704</v>
+        <v>0.06274793392579081</v>
       </c>
       <c r="F4">
-        <v>6.657822446093718</v>
+        <v>6.800554705658641</v>
       </c>
       <c r="G4">
-        <v>0.0008986266280453275</v>
+        <v>0.002713241681167302</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,16 +539,16 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.170032576884509</v>
+        <v>0.2173162972436344</v>
       </c>
       <c r="K4">
-        <v>0.9083847474799143</v>
+        <v>1.191894124772347</v>
       </c>
       <c r="L4">
-        <v>0.09955897160025984</v>
+        <v>0.2808088131310242</v>
       </c>
       <c r="M4">
-        <v>0.1430047365536566</v>
+        <v>0.3382293558468241</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6339383252473283</v>
+        <v>1.387466182014293</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1163300426026979</v>
+        <v>0.03639767680942896</v>
       </c>
       <c r="E5">
-        <v>0.03460768581727081</v>
+        <v>0.06257306022841647</v>
       </c>
       <c r="F5">
-        <v>6.499801160100731</v>
+        <v>6.753325943201759</v>
       </c>
       <c r="G5">
-        <v>0.0009010897261437301</v>
+        <v>0.002714755985314774</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,16 +586,16 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1680749295289452</v>
+        <v>0.2165254835057837</v>
       </c>
       <c r="K5">
-        <v>0.8737937182243627</v>
+        <v>1.188592896684753</v>
       </c>
       <c r="L5">
-        <v>0.09693685037110811</v>
+        <v>0.281499269593894</v>
       </c>
       <c r="M5">
-        <v>0.1397455416380247</v>
+        <v>0.3385124572663258</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6316301390805563</v>
+        <v>1.387472337026452</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1155404202918362</v>
+        <v>0.03614957468968782</v>
       </c>
       <c r="E6">
-        <v>0.03453372577531333</v>
+        <v>0.06254383896656446</v>
       </c>
       <c r="F6">
-        <v>6.473644754884475</v>
+        <v>6.745492787971102</v>
       </c>
       <c r="G6">
-        <v>0.0009015011653254753</v>
+        <v>0.002715010155990348</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,16 +633,16 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1677501434197488</v>
+        <v>0.216393341555019</v>
       </c>
       <c r="K6">
-        <v>0.8680885899542261</v>
+        <v>1.188063694810978</v>
       </c>
       <c r="L6">
-        <v>0.09650743757013913</v>
+        <v>0.2816178281610391</v>
       </c>
       <c r="M6">
-        <v>0.139209897259029</v>
+        <v>0.3385631340651472</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6477672050892522</v>
+        <v>1.387505269284048</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1210318504528658</v>
+        <v>0.0378706027377973</v>
       </c>
       <c r="E7">
-        <v>0.03504792367397958</v>
+        <v>0.06274558780551853</v>
       </c>
       <c r="F7">
-        <v>6.655685624401798</v>
+        <v>6.79991714675873</v>
       </c>
       <c r="G7">
-        <v>0.000898659683438625</v>
+        <v>0.002713261921445258</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,16 +680,16 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1700061542110269</v>
+        <v>0.2173056874527823</v>
       </c>
       <c r="K7">
-        <v>0.90791560044633</v>
+        <v>1.191848331432226</v>
       </c>
       <c r="L7">
-        <v>0.09952320165415784</v>
+        <v>0.2808178627990685</v>
       </c>
       <c r="M7">
-        <v>0.1429604057207179</v>
+        <v>0.3382329279675886</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7220174189264412</v>
+        <v>1.389521448285791</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1455727094479613</v>
+        <v>0.0454396808161448</v>
       </c>
       <c r="E8">
-        <v>0.03734527118122344</v>
+        <v>0.06360939978419022</v>
       </c>
       <c r="F8">
-        <v>7.472543024476352</v>
+        <v>7.041434180147064</v>
       </c>
       <c r="G8">
-        <v>0.000886463515839381</v>
+        <v>0.0027059418760745</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,16 +727,16 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1800292296720194</v>
+        <v>0.2212124157837749</v>
       </c>
       <c r="K8">
-        <v>1.089815620586336</v>
+        <v>1.211311049954361</v>
       </c>
       <c r="L8">
-        <v>0.1137653224955812</v>
+        <v>0.2778563299476531</v>
       </c>
       <c r="M8">
-        <v>0.1603684112860257</v>
+        <v>0.3373088496200971</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8804546699498417</v>
+        <v>1.40019055047344</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1953035444313258</v>
+        <v>0.06020216905233156</v>
       </c>
       <c r="E9">
-        <v>0.04203626176314312</v>
+        <v>0.06521048262967355</v>
       </c>
       <c r="F9">
-        <v>9.139249781440242</v>
+        <v>7.520183765442908</v>
       </c>
       <c r="G9">
-        <v>0.0008636442977434341</v>
+        <v>0.002692994684308444</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,16 +774,16 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2002227293427268</v>
+        <v>0.2284555873034328</v>
       </c>
       <c r="K9">
-        <v>1.474372950753093</v>
+        <v>1.259462255140051</v>
       </c>
       <c r="L9">
-        <v>0.1457452275579882</v>
+        <v>0.2740963977939543</v>
       </c>
       <c r="M9">
-        <v>0.1981533857315796</v>
+        <v>0.3374122118727456</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.006751121323902</v>
+        <v>1.412120449544005</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2333611683002346</v>
+        <v>0.07101058087449985</v>
       </c>
       <c r="E10">
-        <v>0.0456905298975423</v>
+        <v>0.06633237734482655</v>
       </c>
       <c r="F10">
-        <v>10.42085033042713</v>
+        <v>7.875348223139753</v>
       </c>
       <c r="G10">
-        <v>0.0008474031443874708</v>
+        <v>0.002684330282109614</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,16 +821,16 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2157111191237711</v>
+        <v>0.2335326452864983</v>
       </c>
       <c r="K10">
-        <v>1.780189625331019</v>
+        <v>1.300990768085882</v>
       </c>
       <c r="L10">
-        <v>0.1724742166774433</v>
+        <v>0.2725871306696348</v>
       </c>
       <c r="M10">
-        <v>0.228754996168842</v>
+        <v>0.3386568066717501</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.066887869173684</v>
+        <v>1.418435951885584</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2511442320084711</v>
+        <v>0.07592197860168426</v>
       </c>
       <c r="E11">
-        <v>0.04742338853170125</v>
+        <v>0.06683141644823998</v>
       </c>
       <c r="F11">
-        <v>11.02078793517893</v>
+        <v>8.037732498390881</v>
       </c>
       <c r="G11">
-        <v>0.0008400913086374499</v>
+        <v>0.002680570578876867</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2229838035604033</v>
+        <v>0.2357914690139822</v>
       </c>
       <c r="K11">
-        <v>1.926015408624153</v>
+        <v>1.321233836183893</v>
       </c>
       <c r="L11">
-        <v>0.1855363643248609</v>
+        <v>0.2721737985802832</v>
       </c>
       <c r="M11">
-        <v>0.2434535180824504</v>
+        <v>0.3394770835070915</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.090097251007364</v>
+        <v>1.420955175327322</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.2579592922005531</v>
+        <v>0.07778120601091132</v>
       </c>
       <c r="E12">
-        <v>0.04809224215215391</v>
+        <v>0.06701880002348481</v>
       </c>
       <c r="F12">
-        <v>11.25083629423756</v>
+        <v>8.099345554729211</v>
       </c>
       <c r="G12">
-        <v>0.0008373299336033909</v>
+        <v>0.002679172851587168</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,16 +915,16 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2257787358958296</v>
+        <v>0.2366397039111909</v>
       </c>
       <c r="K12">
-        <v>1.982360893272158</v>
+        <v>1.329094815519341</v>
       </c>
       <c r="L12">
-        <v>0.1906321256534369</v>
+        <v>0.2720566650386758</v>
       </c>
       <c r="M12">
-        <v>0.2491468069271328</v>
+        <v>0.3398242570427676</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.085078379476414</v>
+        <v>1.420406938219003</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.2564877125986271</v>
+        <v>0.07738081272086106</v>
       </c>
       <c r="E13">
-        <v>0.04794758511688446</v>
+        <v>0.0669785138389436</v>
       </c>
       <c r="F13">
-        <v>11.2011563736533</v>
+        <v>8.086070605674877</v>
       </c>
       <c r="G13">
-        <v>0.0008379243743820517</v>
+        <v>0.002679472723414865</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,16 +962,16 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2251748318966555</v>
+        <v>0.2364573359228608</v>
       </c>
       <c r="K13">
-        <v>1.970173084449243</v>
+        <v>1.327393107369431</v>
       </c>
       <c r="L13">
-        <v>0.1895276749627328</v>
+        <v>0.2720801385734859</v>
       </c>
       <c r="M13">
-        <v>0.2479147256017633</v>
+        <v>0.3397478610937483</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.068788246714604</v>
+        <v>1.41864065150213</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.251703204867411</v>
+        <v>0.07607494968394235</v>
       </c>
       <c r="E14">
-        <v>0.04747814596680211</v>
+        <v>0.06684686430260545</v>
       </c>
       <c r="F14">
-        <v>11.03965406413465</v>
+        <v>8.042798980346788</v>
       </c>
       <c r="G14">
-        <v>0.0008398640009335985</v>
+        <v>0.002680455066893989</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,16 +1009,16 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2232128722892917</v>
+        <v>0.2358613958037985</v>
       </c>
       <c r="K14">
-        <v>1.930627453334466</v>
+        <v>1.321876642270098</v>
       </c>
       <c r="L14">
-        <v>0.1859524790428964</v>
+        <v>0.2721633720165073</v>
       </c>
       <c r="M14">
-        <v>0.2439192614421941</v>
+        <v>0.339504913033295</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.058868595175596</v>
+        <v>1.417575375058874</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.2487835310578959</v>
+        <v>0.0752749960347785</v>
       </c>
       <c r="E15">
-        <v>0.04719233097448949</v>
+        <v>0.06676601893628131</v>
       </c>
       <c r="F15">
-        <v>10.94111608777183</v>
+        <v>8.016309823214726</v>
       </c>
       <c r="G15">
-        <v>0.0008410529372138505</v>
+        <v>0.002681060161060593</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2220167117548648</v>
+        <v>0.2354954413372248</v>
       </c>
       <c r="K15">
-        <v>1.906556177291691</v>
+        <v>1.318523121601316</v>
       </c>
       <c r="L15">
-        <v>0.1837826549040074</v>
+        <v>0.2722194870454757</v>
       </c>
       <c r="M15">
-        <v>0.2414889943193899</v>
+        <v>0.3393608609719294</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.002879256055081</v>
+        <v>1.411725588223959</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.2322095713544741</v>
+        <v>0.07068951480383134</v>
       </c>
       <c r="E16">
-        <v>0.04557890868519188</v>
+        <v>0.06629953928409016</v>
       </c>
       <c r="F16">
-        <v>10.38201921572934</v>
+        <v>7.864752833648339</v>
       </c>
       <c r="G16">
-        <v>0.0008478822357116737</v>
+        <v>0.002684579632625052</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,16 +1103,16 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2152410804818956</v>
+        <v>0.2333840186778566</v>
       </c>
       <c r="K16">
-        <v>1.770807707245069</v>
+        <v>1.299695118900985</v>
       </c>
       <c r="L16">
-        <v>0.1716403540625322</v>
+        <v>0.2726196491982193</v>
       </c>
       <c r="M16">
-        <v>0.2278113354871643</v>
+        <v>0.3386083138882512</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.969253232498005</v>
+        <v>1.408364440574388</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.2221714364228831</v>
+        <v>0.06787520347539555</v>
       </c>
       <c r="E17">
-        <v>0.04460885642627321</v>
+        <v>0.06601049592489883</v>
       </c>
       <c r="F17">
-        <v>10.04365685419864</v>
+        <v>7.771989916119878</v>
       </c>
       <c r="G17">
-        <v>0.0008520889789305966</v>
+        <v>0.002686785165970294</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,16 +1150,16 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.211148108131912</v>
+        <v>0.2320758473541389</v>
       </c>
       <c r="K17">
-        <v>1.689355375565697</v>
+        <v>1.288491627257315</v>
       </c>
       <c r="L17">
-        <v>0.1644357842815083</v>
+        <v>0.2729351853532194</v>
       </c>
       <c r="M17">
-        <v>0.2196300687831467</v>
+        <v>0.3382117408486955</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9501616347409367</v>
+        <v>1.406514834922604</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.2164411529512194</v>
+        <v>0.06625596755517904</v>
       </c>
       <c r="E18">
-        <v>0.04405737285220734</v>
+        <v>0.06584317852358712</v>
       </c>
       <c r="F18">
-        <v>9.850604572880115</v>
+        <v>7.718711908092217</v>
       </c>
       <c r="G18">
-        <v>0.0008545160081418949</v>
+        <v>0.002688070848862469</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,16 +1197,16 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2088147378902967</v>
+        <v>0.2313186344872982</v>
       </c>
       <c r="K18">
-        <v>1.643126770552925</v>
+        <v>1.282174825899688</v>
       </c>
       <c r="L18">
-        <v>0.1603755770771187</v>
+        <v>0.2731423862499085</v>
       </c>
       <c r="M18">
-        <v>0.2149965816561732</v>
+        <v>0.33800755909866</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9437389015584472</v>
+        <v>1.40590295795505</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.2145080504581927</v>
+        <v>0.06570762805195329</v>
       </c>
       <c r="E19">
-        <v>0.04387168994093571</v>
+        <v>0.0657863433375967</v>
       </c>
       <c r="F19">
-        <v>9.785496924543736</v>
+        <v>7.700685954029183</v>
       </c>
       <c r="G19">
-        <v>0.0008553391331490257</v>
+        <v>0.002688509103707853</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,16 +1244,16 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2080280374824071</v>
+        <v>0.2310614279555416</v>
       </c>
       <c r="K19">
-        <v>1.627576640395972</v>
+        <v>1.280057873131</v>
       </c>
       <c r="L19">
-        <v>0.1590146798282746</v>
+        <v>0.2732169542993361</v>
       </c>
       <c r="M19">
-        <v>0.2134397190373001</v>
+        <v>0.3379425340245525</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9728066405215259</v>
+        <v>1.408713584993251</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.2232354315926699</v>
+        <v>0.06817484419333653</v>
       </c>
       <c r="E20">
-        <v>0.0447114340781658</v>
+        <v>0.06604137528930387</v>
       </c>
       <c r="F20">
-        <v>10.07951121413396</v>
+        <v>7.781856712967738</v>
       </c>
       <c r="G20">
-        <v>0.0008516404197939381</v>
+        <v>0.002686548612629736</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2115816030998801</v>
+        <v>0.2322155986949426</v>
       </c>
       <c r="K20">
-        <v>1.697960796740176</v>
+        <v>1.28967109115996</v>
       </c>
       <c r="L20">
-        <v>0.1651939305831149</v>
+        <v>0.2728989341373307</v>
       </c>
       <c r="M20">
-        <v>0.2204934049254028</v>
+        <v>0.3382514813704489</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.073560756301703</v>
+        <v>1.419155988202704</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.2531062171084102</v>
+        <v>0.07645852861236335</v>
       </c>
       <c r="E21">
-        <v>0.04761566600511635</v>
+        <v>0.06688557587578625</v>
       </c>
       <c r="F21">
-        <v>11.08700973769533</v>
+        <v>8.055505571766901</v>
       </c>
       <c r="G21">
-        <v>0.0008392941136928654</v>
+        <v>0.002680165824776279</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2237879645526526</v>
+        <v>0.2360366301126327</v>
       </c>
       <c r="K21">
-        <v>1.942211059686258</v>
+        <v>1.32349165128133</v>
       </c>
       <c r="L21">
-        <v>0.1869983757002984</v>
+        <v>0.2721378546276725</v>
       </c>
       <c r="M21">
-        <v>0.2450892380966962</v>
+        <v>0.3395752806276313</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.141984751698317</v>
+        <v>1.426724883000333</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.2731081858498641</v>
+        <v>0.08186890354008369</v>
       </c>
       <c r="E22">
-        <v>0.04958900600085858</v>
+        <v>0.06742804887621379</v>
       </c>
       <c r="F22">
-        <v>11.7624105447988</v>
+        <v>8.235061917304677</v>
       </c>
       <c r="G22">
-        <v>0.0008312665753955382</v>
+        <v>0.002676145728599911</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,16 +1385,16 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2320088390465642</v>
+        <v>0.2384923983576428</v>
       </c>
       <c r="K22">
-        <v>2.108488225290472</v>
+        <v>1.346734593555396</v>
       </c>
       <c r="L22">
-        <v>0.2021309550033408</v>
+        <v>0.2718700657737543</v>
       </c>
       <c r="M22">
-        <v>0.2619146913181609</v>
+        <v>0.3406535239652513</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.105211263354846</v>
+        <v>1.42261715598184</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.2623839709901432</v>
+        <v>0.07898154936802371</v>
       </c>
       <c r="E23">
-        <v>0.04852796895241784</v>
+        <v>0.06713935634526003</v>
       </c>
       <c r="F23">
-        <v>11.40022859332009</v>
+        <v>8.139162923787637</v>
       </c>
       <c r="G23">
-        <v>0.0008355485168345206</v>
+        <v>0.002678277523253465</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,16 +1432,16 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2275958709613306</v>
+        <v>0.2371854504900526</v>
       </c>
       <c r="K23">
-        <v>2.019075918322812</v>
+        <v>1.334224812452334</v>
       </c>
       <c r="L23">
-        <v>0.193966463187877</v>
+        <v>0.2719919470984991</v>
       </c>
       <c r="M23">
-        <v>0.2528602643244646</v>
+        <v>0.3400585448623659</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9711993995671548</v>
+        <v>1.408555479006679</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.2227542733591577</v>
+        <v>0.06803938053333525</v>
       </c>
       <c r="E24">
-        <v>0.04466503955612744</v>
+        <v>0.06602741828999559</v>
       </c>
       <c r="F24">
-        <v>10.06329689005636</v>
+        <v>7.777395770486862</v>
       </c>
       <c r="G24">
-        <v>0.0008518431865027071</v>
+        <v>0.002686655503104583</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,16 +1479,16 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2113855591673399</v>
+        <v>0.2321524330982001</v>
       </c>
       <c r="K24">
-        <v>1.694068430527011</v>
+        <v>1.289137468641144</v>
       </c>
       <c r="L24">
-        <v>0.1648509193050529</v>
+        <v>0.272915242973454</v>
       </c>
       <c r="M24">
-        <v>0.2201028736609416</v>
+        <v>0.3382334405080627</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8360198070257923</v>
+        <v>1.396585647815726</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1816258992346462</v>
+        <v>0.05621595764796439</v>
       </c>
       <c r="E25">
-        <v>0.04073835832172712</v>
+        <v>0.0647870630574916</v>
       </c>
       <c r="F25">
-        <v>8.679726618971074</v>
+        <v>7.390089073966379</v>
       </c>
       <c r="G25">
-        <v>0.0008697140219580383</v>
+        <v>0.002696347616375497</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,16 +1526,16 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1946711979188009</v>
+        <v>0.2265397992199247</v>
       </c>
       <c r="K25">
-        <v>1.366753814836869</v>
+        <v>1.245360526069675</v>
       </c>
       <c r="L25">
-        <v>0.1365870189051392</v>
+        <v>0.2748938575286815</v>
       </c>
       <c r="M25">
-        <v>0.187481683883572</v>
+        <v>0.3371790994860184</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_26/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_26/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.390522308914854</v>
+        <v>0.7429350662719401</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0474846538192395</v>
+        <v>0.1523127439129155</v>
       </c>
       <c r="E2">
-        <v>0.06383708548180067</v>
+        <v>0.03797725134901775</v>
       </c>
       <c r="F2">
-        <v>7.107209821577129</v>
+        <v>7.69767486871504</v>
       </c>
       <c r="G2">
-        <v>0.002704054131961699</v>
+        <v>0.0008832380786530713</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,16 +445,16 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2222422812520186</v>
+        <v>0.1827707383631356</v>
       </c>
       <c r="K2">
-        <v>1.217257839327175</v>
+        <v>1.140778247036593</v>
       </c>
       <c r="L2">
-        <v>0.277192302064627</v>
+        <v>0.1178732547795533</v>
       </c>
       <c r="M2">
-        <v>0.3371880716758398</v>
+        <v>0.1653115319250738</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.388129126599779</v>
+        <v>0.6831904178510513</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.04154735179352542</v>
+        <v>0.132873302478302</v>
       </c>
       <c r="E3">
-        <v>0.06316964206907283</v>
+        <v>0.03615612011913338</v>
       </c>
       <c r="F3">
-        <v>6.916827027181171</v>
+        <v>7.04921797764959</v>
       </c>
       <c r="G3">
-        <v>0.002709636068185649</v>
+        <v>0.0008926795092899367</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,16 +492,16 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2192234540388043</v>
+        <v>0.1748524484787524</v>
       </c>
       <c r="K3">
-        <v>1.200766569114137</v>
+        <v>0.9949296973320259</v>
       </c>
       <c r="L3">
-        <v>0.279273351339711</v>
+        <v>0.106247514597186</v>
       </c>
       <c r="M3">
-        <v>0.3376836515447614</v>
+        <v>0.1512365676731591</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.38750667872975</v>
+        <v>0.6479576107944922</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.03789072640053348</v>
+        <v>0.1210962542623975</v>
       </c>
       <c r="E4">
-        <v>0.06274793392579081</v>
+        <v>0.03505395238589237</v>
       </c>
       <c r="F4">
-        <v>6.800554705658641</v>
+        <v>6.657822446093718</v>
       </c>
       <c r="G4">
-        <v>0.002713241681167302</v>
+        <v>0.0008986266280463205</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,16 +539,16 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2173162972436344</v>
+        <v>0.1700325768845374</v>
       </c>
       <c r="K4">
-        <v>1.191894124772347</v>
+        <v>0.9083847474798858</v>
       </c>
       <c r="L4">
-        <v>0.2808088131310242</v>
+        <v>0.09955897160014615</v>
       </c>
       <c r="M4">
-        <v>0.3382293558468241</v>
+        <v>0.1430047365536637</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.387466182014293</v>
+        <v>0.6339383252473283</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.03639767680942896</v>
+        <v>0.1163300426028826</v>
       </c>
       <c r="E5">
-        <v>0.06257306022841647</v>
+        <v>0.0346076858172486</v>
       </c>
       <c r="F5">
-        <v>6.753325943201759</v>
+        <v>6.499801160100731</v>
       </c>
       <c r="G5">
-        <v>0.002714755985314774</v>
+        <v>0.0009010897262062286</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,16 +586,16 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2165254835057837</v>
+        <v>0.1680749295288919</v>
       </c>
       <c r="K5">
-        <v>1.188592896684753</v>
+        <v>0.8737937182243343</v>
       </c>
       <c r="L5">
-        <v>0.281499269593894</v>
+        <v>0.09693685037102284</v>
       </c>
       <c r="M5">
-        <v>0.3385124572663258</v>
+        <v>0.1397455416380176</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.387472337026452</v>
+        <v>0.6316301390804711</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.03614957468968782</v>
+        <v>0.115540420291893</v>
       </c>
       <c r="E6">
-        <v>0.06254383896656446</v>
+        <v>0.03453372577530089</v>
       </c>
       <c r="F6">
-        <v>6.745492787971102</v>
+        <v>6.473644754884447</v>
       </c>
       <c r="G6">
-        <v>0.002715010155990348</v>
+        <v>0.0009015011653950997</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,16 +633,16 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.216393341555019</v>
+        <v>0.167750143419557</v>
       </c>
       <c r="K6">
-        <v>1.188063694810978</v>
+        <v>0.8680885899543114</v>
       </c>
       <c r="L6">
-        <v>0.2816178281610391</v>
+        <v>0.09650743757006808</v>
       </c>
       <c r="M6">
-        <v>0.3385631340651472</v>
+        <v>0.1392098972590752</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.387505269284048</v>
+        <v>0.6477672050893943</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0378706027377973</v>
+        <v>0.1210318504528516</v>
       </c>
       <c r="E7">
-        <v>0.06274558780551853</v>
+        <v>0.0350479236739849</v>
       </c>
       <c r="F7">
-        <v>6.79991714675873</v>
+        <v>6.655685624401798</v>
       </c>
       <c r="G7">
-        <v>0.002713261921445258</v>
+        <v>0.0008986596834350546</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,16 +680,16 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2173056874527823</v>
+        <v>0.1700061542108884</v>
       </c>
       <c r="K7">
-        <v>1.191848331432226</v>
+        <v>0.9079156004461879</v>
       </c>
       <c r="L7">
-        <v>0.2808178627990685</v>
+        <v>0.09952320165399442</v>
       </c>
       <c r="M7">
-        <v>0.3382329279675886</v>
+        <v>0.1429604057207285</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.389521448285791</v>
+        <v>0.7220174189267539</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0454396808161448</v>
+        <v>0.1455727094480892</v>
       </c>
       <c r="E8">
-        <v>0.06360939978419022</v>
+        <v>0.03734527118120035</v>
       </c>
       <c r="F8">
-        <v>7.041434180147064</v>
+        <v>7.47254302447638</v>
       </c>
       <c r="G8">
-        <v>0.0027059418760745</v>
+        <v>0.0008864635158889781</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,16 +727,16 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2212124157837749</v>
+        <v>0.1800292296721011</v>
       </c>
       <c r="K8">
-        <v>1.211311049954361</v>
+        <v>1.089815620586279</v>
       </c>
       <c r="L8">
-        <v>0.2778563299476531</v>
+        <v>0.1137653224958726</v>
       </c>
       <c r="M8">
-        <v>0.3373088496200971</v>
+        <v>0.1603684112860329</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.40019055047344</v>
+        <v>0.8804546699499269</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.06020216905233156</v>
+        <v>0.19530354443107</v>
       </c>
       <c r="E9">
-        <v>0.06521048262967355</v>
+        <v>0.04203626176307385</v>
       </c>
       <c r="F9">
-        <v>7.520183765442908</v>
+        <v>9.139249781440327</v>
       </c>
       <c r="G9">
-        <v>0.002692994684308444</v>
+        <v>0.0008636442976178473</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,16 +774,16 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2284555873034328</v>
+        <v>0.2002227293428867</v>
       </c>
       <c r="K9">
-        <v>1.259462255140051</v>
+        <v>1.474372950753121</v>
       </c>
       <c r="L9">
-        <v>0.2740963977939543</v>
+        <v>0.1457452275580167</v>
       </c>
       <c r="M9">
-        <v>0.3374122118727456</v>
+        <v>0.1981533857315121</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.412120449544005</v>
+        <v>1.006751121324129</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.07101058087449985</v>
+        <v>0.2333611683007035</v>
       </c>
       <c r="E10">
-        <v>0.06633237734482655</v>
+        <v>0.04569052989748901</v>
       </c>
       <c r="F10">
-        <v>7.875348223139753</v>
+        <v>10.42085033042713</v>
       </c>
       <c r="G10">
-        <v>0.002684330282109614</v>
+        <v>0.0008474031445062428</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,16 +821,16 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2335326452864983</v>
+        <v>0.2157111191239167</v>
       </c>
       <c r="K10">
-        <v>1.300990768085882</v>
+        <v>1.78018962533082</v>
       </c>
       <c r="L10">
-        <v>0.2725871306696348</v>
+        <v>0.1724742166773723</v>
       </c>
       <c r="M10">
-        <v>0.3386568066717501</v>
+        <v>0.2287549961688669</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.418435951885584</v>
+        <v>1.066887869174224</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.07592197860168426</v>
+        <v>0.2511442320086701</v>
       </c>
       <c r="E11">
-        <v>0.06683141644823998</v>
+        <v>0.04742338853168082</v>
       </c>
       <c r="F11">
-        <v>8.037732498390881</v>
+        <v>11.02078793517904</v>
       </c>
       <c r="G11">
-        <v>0.002680570578876867</v>
+        <v>0.0008400913087533571</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2357914690139822</v>
+        <v>0.2229838035601936</v>
       </c>
       <c r="K11">
-        <v>1.321233836183893</v>
+        <v>1.926015408624181</v>
       </c>
       <c r="L11">
-        <v>0.2721737985802832</v>
+        <v>0.185536364325003</v>
       </c>
       <c r="M11">
-        <v>0.3394770835070915</v>
+        <v>0.2434535180824255</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.420955175327322</v>
+        <v>1.09009725100762</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.07778120601091132</v>
+        <v>0.2579592922005389</v>
       </c>
       <c r="E12">
-        <v>0.06701880002348481</v>
+        <v>0.04809224215210328</v>
       </c>
       <c r="F12">
-        <v>8.099345554729211</v>
+        <v>11.25083629423756</v>
       </c>
       <c r="G12">
-        <v>0.002679172851587168</v>
+        <v>0.0008373299333742863</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,16 +915,16 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2366397039111909</v>
+        <v>0.2257787358957337</v>
       </c>
       <c r="K12">
-        <v>1.329094815519341</v>
+        <v>1.982360893272272</v>
       </c>
       <c r="L12">
-        <v>0.2720566650386758</v>
+        <v>0.1906321256533374</v>
       </c>
       <c r="M12">
-        <v>0.3398242570427676</v>
+        <v>0.2491468069270901</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.420406938219003</v>
+        <v>1.085078379476215</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.07738081272086106</v>
+        <v>0.2564877125992382</v>
       </c>
       <c r="E13">
-        <v>0.0669785138389436</v>
+        <v>0.04794758511685604</v>
       </c>
       <c r="F13">
-        <v>8.086070605674877</v>
+        <v>11.20115637365342</v>
       </c>
       <c r="G13">
-        <v>0.002679472723414865</v>
+        <v>0.0008379243743678858</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,16 +962,16 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2364573359228608</v>
+        <v>0.225174831896588</v>
       </c>
       <c r="K13">
-        <v>1.327393107369431</v>
+        <v>1.9701730844493</v>
       </c>
       <c r="L13">
-        <v>0.2720801385734859</v>
+        <v>0.1895276749628039</v>
       </c>
       <c r="M13">
-        <v>0.3397478610937483</v>
+        <v>0.2479147256017882</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.41864065150213</v>
+        <v>1.068788246714689</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.07607494968394235</v>
+        <v>0.2517032048674537</v>
       </c>
       <c r="E14">
-        <v>0.06684686430260545</v>
+        <v>0.04747814596676481</v>
       </c>
       <c r="F14">
-        <v>8.042798980346788</v>
+        <v>11.03965406413448</v>
       </c>
       <c r="G14">
-        <v>0.002680455066893989</v>
+        <v>0.0008398640009445336</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,16 +1009,16 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2358613958037985</v>
+        <v>0.223212872289384</v>
       </c>
       <c r="K14">
-        <v>1.321876642270098</v>
+        <v>1.930627453334381</v>
       </c>
       <c r="L14">
-        <v>0.2721633720165073</v>
+        <v>0.1859524790427685</v>
       </c>
       <c r="M14">
-        <v>0.339504913033295</v>
+        <v>0.2439192614421586</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.417575375058874</v>
+        <v>1.058868595175824</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.0752749960347785</v>
+        <v>0.2487835310582653</v>
       </c>
       <c r="E15">
-        <v>0.06676601893628131</v>
+        <v>0.04719233097454456</v>
       </c>
       <c r="F15">
-        <v>8.016309823214726</v>
+        <v>10.94111608777166</v>
       </c>
       <c r="G15">
-        <v>0.002681060161060593</v>
+        <v>0.0008410529371216668</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2354954413372248</v>
+        <v>0.2220167117546765</v>
       </c>
       <c r="K15">
-        <v>1.318523121601316</v>
+        <v>1.906556177291634</v>
       </c>
       <c r="L15">
-        <v>0.2722194870454757</v>
+        <v>0.1837826549036947</v>
       </c>
       <c r="M15">
-        <v>0.3393608609719294</v>
+        <v>0.2414889943193756</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.411725588223959</v>
+        <v>1.002879256055195</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.07068951480383134</v>
+        <v>0.2322095713541188</v>
       </c>
       <c r="E16">
-        <v>0.06629953928409016</v>
+        <v>0.04557890868516612</v>
       </c>
       <c r="F16">
-        <v>7.864752833648339</v>
+        <v>10.38201921572934</v>
       </c>
       <c r="G16">
-        <v>0.002684579632625052</v>
+        <v>0.0008478822357258351</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,16 +1103,16 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2333840186778566</v>
+        <v>0.2152410804819489</v>
       </c>
       <c r="K16">
-        <v>1.299695118900985</v>
+        <v>1.770807707245069</v>
       </c>
       <c r="L16">
-        <v>0.2726196491982193</v>
+        <v>0.1716403540626033</v>
       </c>
       <c r="M16">
-        <v>0.3386083138882512</v>
+        <v>0.2278113354872175</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.408364440574388</v>
+        <v>0.969253232498005</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.06787520347539555</v>
+        <v>0.2221714364224852</v>
       </c>
       <c r="E17">
-        <v>0.06601049592489883</v>
+        <v>0.04460885642631229</v>
       </c>
       <c r="F17">
-        <v>7.771989916119878</v>
+        <v>10.04365685419856</v>
       </c>
       <c r="G17">
-        <v>0.002686785165970294</v>
+        <v>0.0008520889788286151</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,16 +1150,16 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2320758473541389</v>
+        <v>0.2111481081316526</v>
       </c>
       <c r="K17">
-        <v>1.288491627257315</v>
+        <v>1.689355375565697</v>
       </c>
       <c r="L17">
-        <v>0.2729351853532194</v>
+        <v>0.1644357842815936</v>
       </c>
       <c r="M17">
-        <v>0.3382117408486955</v>
+        <v>0.2196300687831361</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.406514834922604</v>
+        <v>0.9501616347411073</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.06625596755517904</v>
+        <v>0.2164411529521999</v>
       </c>
       <c r="E18">
-        <v>0.06584317852358712</v>
+        <v>0.04405737285222333</v>
       </c>
       <c r="F18">
-        <v>7.718711908092217</v>
+        <v>9.850604572879973</v>
       </c>
       <c r="G18">
-        <v>0.002688070848862469</v>
+        <v>0.0008545160082662533</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,16 +1197,16 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2313186344872982</v>
+        <v>0.2088147378906022</v>
       </c>
       <c r="K18">
-        <v>1.282174825899688</v>
+        <v>1.643126770552584</v>
       </c>
       <c r="L18">
-        <v>0.2731423862499085</v>
+        <v>0.1603755770772111</v>
       </c>
       <c r="M18">
-        <v>0.33800755909866</v>
+        <v>0.214996581656191</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.40590295795505</v>
+        <v>0.9437389015581061</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.06570762805195329</v>
+        <v>0.2145080504580363</v>
       </c>
       <c r="E19">
-        <v>0.0657863433375967</v>
+        <v>0.04387168994085044</v>
       </c>
       <c r="F19">
-        <v>7.700685954029183</v>
+        <v>9.785496924543622</v>
       </c>
       <c r="G19">
-        <v>0.002688509103707853</v>
+        <v>0.0008553391332803307</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,16 +1244,16 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2310614279555416</v>
+        <v>0.208028037482574</v>
       </c>
       <c r="K19">
-        <v>1.280057873131</v>
+        <v>1.627576640395972</v>
       </c>
       <c r="L19">
-        <v>0.2732169542993361</v>
+        <v>0.1590146798283243</v>
       </c>
       <c r="M19">
-        <v>0.3379425340245525</v>
+        <v>0.2134397190372788</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.408713584993251</v>
+        <v>0.9728066405218669</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.06817484419333653</v>
+        <v>0.2232354315926415</v>
       </c>
       <c r="E20">
-        <v>0.06604137528930387</v>
+        <v>0.04471143407809208</v>
       </c>
       <c r="F20">
-        <v>7.781856712967738</v>
+        <v>10.07951121413399</v>
       </c>
       <c r="G20">
-        <v>0.002686548612629736</v>
+        <v>0.0008516404197887463</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2322155986949426</v>
+        <v>0.2115816030998126</v>
       </c>
       <c r="K20">
-        <v>1.28967109115996</v>
+        <v>1.697960796740233</v>
       </c>
       <c r="L20">
-        <v>0.2728989341373307</v>
+        <v>0.165193930582916</v>
       </c>
       <c r="M20">
-        <v>0.3382514813704489</v>
+        <v>0.2204934049253815</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.419155988202704</v>
+        <v>1.073560756301191</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.07645852861236335</v>
+        <v>0.2531062171083676</v>
       </c>
       <c r="E21">
-        <v>0.06688557587578625</v>
+        <v>0.04761566600515099</v>
       </c>
       <c r="F21">
-        <v>8.055505571766901</v>
+        <v>11.08700973769538</v>
       </c>
       <c r="G21">
-        <v>0.002680165824776279</v>
+        <v>0.0008392941136831929</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2360366301126327</v>
+        <v>0.2237879645525389</v>
       </c>
       <c r="K21">
-        <v>1.32349165128133</v>
+        <v>1.942211059686372</v>
       </c>
       <c r="L21">
-        <v>0.2721378546276725</v>
+        <v>0.1869983757003126</v>
       </c>
       <c r="M21">
-        <v>0.3395752806276313</v>
+        <v>0.2450892380967069</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.426724883000333</v>
+        <v>1.14198475169789</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.08186890354008369</v>
+        <v>0.2731081858501625</v>
       </c>
       <c r="E22">
-        <v>0.06742804887621379</v>
+        <v>0.04958900600074223</v>
       </c>
       <c r="F22">
-        <v>8.235061917304677</v>
+        <v>11.7624105447988</v>
       </c>
       <c r="G22">
-        <v>0.002676145728599911</v>
+        <v>0.0008312665752717531</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,16 +1385,16 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2384923983576428</v>
+        <v>0.2320088390467667</v>
       </c>
       <c r="K22">
-        <v>1.346734593555396</v>
+        <v>2.108488225290557</v>
       </c>
       <c r="L22">
-        <v>0.2718700657737543</v>
+        <v>0.202130955003426</v>
       </c>
       <c r="M22">
-        <v>0.3406535239652513</v>
+        <v>0.2619146913181467</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.42261715598184</v>
+        <v>1.105211263355386</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.07898154936802371</v>
+        <v>0.2623839709900579</v>
       </c>
       <c r="E23">
-        <v>0.06713935634526003</v>
+        <v>0.04852796895243916</v>
       </c>
       <c r="F23">
-        <v>8.139162923787637</v>
+        <v>11.40022859332032</v>
       </c>
       <c r="G23">
-        <v>0.002678277523253465</v>
+        <v>0.000835548516689545</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,16 +1432,16 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2371854504900526</v>
+        <v>0.2275958709614549</v>
       </c>
       <c r="K23">
-        <v>1.334224812452334</v>
+        <v>2.019075918323182</v>
       </c>
       <c r="L23">
-        <v>0.2719919470984991</v>
+        <v>0.1939664631877775</v>
       </c>
       <c r="M23">
-        <v>0.3400585448623659</v>
+        <v>0.2528602643244753</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.408555479006679</v>
+        <v>0.9711993995672685</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.06803938053333525</v>
+        <v>0.2227542733591577</v>
       </c>
       <c r="E24">
-        <v>0.06602741828999559</v>
+        <v>0.04466503955613543</v>
       </c>
       <c r="F24">
-        <v>7.777395770486862</v>
+        <v>10.06329689005628</v>
       </c>
       <c r="G24">
-        <v>0.002686655503104583</v>
+        <v>0.0008518431866247483</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,16 +1479,16 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2321524330982001</v>
+        <v>0.2113855591675069</v>
       </c>
       <c r="K24">
-        <v>1.289137468641144</v>
+        <v>1.694068430526841</v>
       </c>
       <c r="L24">
-        <v>0.272915242973454</v>
+        <v>0.1648509193048966</v>
       </c>
       <c r="M24">
-        <v>0.3382334405080627</v>
+        <v>0.2201028736609167</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.396585647815726</v>
+        <v>0.8360198070256217</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.05621595764796439</v>
+        <v>0.181625899234561</v>
       </c>
       <c r="E25">
-        <v>0.0647870630574916</v>
+        <v>0.0407383583217138</v>
       </c>
       <c r="F25">
-        <v>7.390089073966379</v>
+        <v>8.679726618970989</v>
       </c>
       <c r="G25">
-        <v>0.002696347616375497</v>
+        <v>0.0008697140217624981</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,16 +1526,16 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2265397992199247</v>
+        <v>0.1946711979185878</v>
       </c>
       <c r="K25">
-        <v>1.245360526069675</v>
+        <v>1.366753814836869</v>
       </c>
       <c r="L25">
-        <v>0.2748938575286815</v>
+        <v>0.1365870189052742</v>
       </c>
       <c r="M25">
-        <v>0.3371790994860184</v>
+        <v>0.1874816838835791</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_26/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_26/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7429350662719401</v>
+        <v>2.157410392673626</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1523127439129155</v>
+        <v>0.1765718459243288</v>
       </c>
       <c r="E2">
-        <v>0.03797725134901775</v>
+        <v>0.2347281055987303</v>
       </c>
       <c r="F2">
-        <v>7.69767486871504</v>
+        <v>1.560872718394762</v>
       </c>
       <c r="G2">
-        <v>0.0008832380786530713</v>
+        <v>1.71713056790631</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>9.651332749660568E-06</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.008387873804902135</v>
       </c>
       <c r="J2">
-        <v>0.1827707383631356</v>
+        <v>0.9585677627143525</v>
       </c>
       <c r="K2">
-        <v>1.140778247036593</v>
+        <v>0.3763522404455628</v>
       </c>
       <c r="L2">
-        <v>0.1178732547795533</v>
+        <v>0.3378233746757076</v>
       </c>
       <c r="M2">
-        <v>0.1653115319250738</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1.539853779024867</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>1.122260720932005</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6831904178510513</v>
+        <v>1.888528519531576</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.132873302478302</v>
+        <v>0.1579840102418828</v>
       </c>
       <c r="E3">
-        <v>0.03615612011913338</v>
+        <v>0.2096287784315862</v>
       </c>
       <c r="F3">
-        <v>7.04921797764959</v>
+        <v>1.417812506160843</v>
       </c>
       <c r="G3">
-        <v>0.0008926795092899367</v>
+        <v>1.524086997105542</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.000510461948662666</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.01076191543406235</v>
       </c>
       <c r="J3">
-        <v>0.1748524484787524</v>
+        <v>0.8731030133593549</v>
       </c>
       <c r="K3">
-        <v>0.9949296973320259</v>
+        <v>0.3860797660632684</v>
       </c>
       <c r="L3">
-        <v>0.106247514597186</v>
+        <v>0.3014336641526825</v>
       </c>
       <c r="M3">
-        <v>0.1512365676731591</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>1.340978652116291</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>1.113239032269618</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6479576107944922</v>
+        <v>1.72276313953833</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1210962542623975</v>
+        <v>0.1467018161821017</v>
       </c>
       <c r="E4">
-        <v>0.03505395238589237</v>
+        <v>0.1943815303016798</v>
       </c>
       <c r="F4">
-        <v>6.657822446093718</v>
+        <v>1.33159196647172</v>
       </c>
       <c r="G4">
-        <v>0.0008986266280463205</v>
+        <v>1.407480795214724</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.00121858667757202</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.01245193216497142</v>
       </c>
       <c r="J4">
-        <v>0.1700325768845374</v>
+        <v>0.8217148260548299</v>
       </c>
       <c r="K4">
-        <v>0.9083847474798858</v>
+        <v>0.3923509903491791</v>
       </c>
       <c r="L4">
-        <v>0.09955897160014615</v>
+        <v>0.2793203324766296</v>
       </c>
       <c r="M4">
-        <v>0.1430047365536637</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1.219707211793462</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>1.108518787045746</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6339383252473283</v>
+        <v>1.653404612576026</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1163300426028826</v>
+        <v>0.1421797317934974</v>
       </c>
       <c r="E5">
-        <v>0.0346076858172486</v>
+        <v>0.1883400639985879</v>
       </c>
       <c r="F5">
-        <v>6.499801160100731</v>
+        <v>1.29594728206888</v>
       </c>
       <c r="G5">
-        <v>0.0009010897262062286</v>
+        <v>1.359534332788286</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.001602737492701456</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.01328419606882392</v>
       </c>
       <c r="J5">
-        <v>0.1680749295288919</v>
+        <v>0.8005883954051001</v>
       </c>
       <c r="K5">
-        <v>0.8737937182243343</v>
+        <v>0.3945882315358986</v>
       </c>
       <c r="L5">
-        <v>0.09693685037102284</v>
+        <v>0.2706104120685708</v>
       </c>
       <c r="M5">
-        <v>0.1397455416380176</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1.171611121635038</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>1.107531400417713</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6316301390804711</v>
+        <v>1.639880033831162</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.115540420291893</v>
+        <v>0.1414910349620158</v>
       </c>
       <c r="E6">
-        <v>0.03453372577530089</v>
+        <v>0.1875092771030289</v>
       </c>
       <c r="F6">
-        <v>6.473644754884447</v>
+        <v>1.288977662817658</v>
       </c>
       <c r="G6">
-        <v>0.0009015011653950997</v>
+        <v>1.35054817065523</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.001673734327060972</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.01354033106673747</v>
       </c>
       <c r="J6">
-        <v>0.167750143419557</v>
+        <v>0.7965644610304423</v>
       </c>
       <c r="K6">
-        <v>0.8680885899543114</v>
+        <v>0.3944884857433966</v>
       </c>
       <c r="L6">
-        <v>0.09650743757006808</v>
+        <v>0.2694795365171956</v>
       </c>
       <c r="M6">
-        <v>0.1392098972590752</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>1.165029702927825</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>1.108283247935177</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6477672050893943</v>
+        <v>1.716356209030323</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1210318504528516</v>
+        <v>0.1468075076749003</v>
       </c>
       <c r="E7">
-        <v>0.0350479236739849</v>
+        <v>0.1947675262196356</v>
       </c>
       <c r="F7">
-        <v>6.655685624401798</v>
+        <v>1.328179328456955</v>
       </c>
       <c r="G7">
-        <v>0.0008986596834350546</v>
+        <v>1.403962796118776</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.00122719878025368</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.01275882901236525</v>
       </c>
       <c r="J7">
-        <v>0.1700061542108884</v>
+        <v>0.8199796961326911</v>
       </c>
       <c r="K7">
-        <v>0.9079156004461879</v>
+        <v>0.3910848765279482</v>
       </c>
       <c r="L7">
-        <v>0.09952320165399442</v>
+        <v>0.2800598072931137</v>
       </c>
       <c r="M7">
-        <v>0.1429604057207285</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>1.222873288191494</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>1.110998197436828</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7220174189267539</v>
+        <v>2.057519041275839</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1455727094480892</v>
+        <v>0.1703546046715019</v>
       </c>
       <c r="E8">
-        <v>0.03734527118120035</v>
+        <v>0.2266602863068279</v>
       </c>
       <c r="F8">
-        <v>7.47254302447638</v>
+        <v>1.507294829614466</v>
       </c>
       <c r="G8">
-        <v>0.0008864635158889781</v>
+        <v>1.646319702420271</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>9.645813850944762E-05</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.009510259459324821</v>
       </c>
       <c r="J8">
-        <v>0.1800292296721011</v>
+        <v>0.9269349398317672</v>
       </c>
       <c r="K8">
-        <v>1.089815620586279</v>
+        <v>0.3779454132163398</v>
       </c>
       <c r="L8">
-        <v>0.1137653224958726</v>
+        <v>0.3263674111712049</v>
       </c>
       <c r="M8">
-        <v>0.1603684112860329</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1.476173693652498</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>1.122393360899622</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8804546699499269</v>
+        <v>2.731545781642808</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.19530354443107</v>
+        <v>0.217613880730525</v>
       </c>
       <c r="E9">
-        <v>0.04203626176307385</v>
+        <v>0.2900712476138807</v>
       </c>
       <c r="F9">
-        <v>9.139249781440327</v>
+        <v>1.878619772010751</v>
       </c>
       <c r="G9">
-        <v>0.0008636442976178473</v>
+        <v>2.14470073416706</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.001373663245213042</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.004666282773451158</v>
       </c>
       <c r="J9">
-        <v>0.2002227293428867</v>
+        <v>1.149158337130842</v>
       </c>
       <c r="K9">
-        <v>1.474372950753121</v>
+        <v>0.3569921395017559</v>
       </c>
       <c r="L9">
-        <v>0.1457452275580167</v>
+        <v>0.4180171333192959</v>
       </c>
       <c r="M9">
-        <v>0.1981533857315121</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>1.973948999816685</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>1.146809151922383</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.006751121324129</v>
+        <v>3.202321264878606</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2333611683007035</v>
+        <v>0.2552972450244084</v>
       </c>
       <c r="E10">
-        <v>0.04569052989748901</v>
+        <v>0.3427868397633134</v>
       </c>
       <c r="F10">
-        <v>10.42085033042713</v>
+        <v>2.138390627052061</v>
       </c>
       <c r="G10">
-        <v>0.0008474031445062428</v>
+        <v>2.500873635382561</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.004918323140622238</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.002690188336291754</v>
       </c>
       <c r="J10">
-        <v>0.2157111191239167</v>
+        <v>1.307958260229327</v>
       </c>
       <c r="K10">
-        <v>1.78018962533082</v>
+        <v>0.3388495242714278</v>
       </c>
       <c r="L10">
-        <v>0.1724742166773723</v>
+        <v>0.4958117387078005</v>
       </c>
       <c r="M10">
-        <v>0.2287549961688669</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>2.319783774094162</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>1.180592955360325</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.066887869174224</v>
+        <v>3.237712393305287</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2511442320086701</v>
+        <v>0.2868047013684247</v>
       </c>
       <c r="E11">
-        <v>0.04742338853168082</v>
+        <v>0.4077849374405176</v>
       </c>
       <c r="F11">
-        <v>11.02078793517904</v>
+        <v>2.051030741639934</v>
       </c>
       <c r="G11">
-        <v>0.0008400913087533571</v>
+        <v>2.457549256034298</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.02412441390389475</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.002879611668325843</v>
       </c>
       <c r="J11">
-        <v>0.2229838035601936</v>
+        <v>1.278457855264179</v>
       </c>
       <c r="K11">
-        <v>1.926015408624181</v>
+        <v>0.2983112700018502</v>
       </c>
       <c r="L11">
-        <v>0.185536364325003</v>
+        <v>0.6072092825642414</v>
       </c>
       <c r="M11">
-        <v>0.2434535180824255</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>2.23799460035562</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>1.29705872328941</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.09009725100762</v>
+        <v>3.174993440411185</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.2579592922005389</v>
+        <v>0.3059371424446056</v>
       </c>
       <c r="E12">
-        <v>0.04809224215210328</v>
+        <v>0.4548074386340417</v>
       </c>
       <c r="F12">
-        <v>11.25083629423756</v>
+        <v>1.926991398060267</v>
       </c>
       <c r="G12">
-        <v>0.0008373299333742863</v>
+        <v>2.348867144064485</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.06269526299816164</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.002881576662193019</v>
       </c>
       <c r="J12">
-        <v>0.2257787358957337</v>
+        <v>1.221351404451013</v>
       </c>
       <c r="K12">
-        <v>1.982360893272272</v>
+        <v>0.2732596226549582</v>
       </c>
       <c r="L12">
-        <v>0.1906321256533374</v>
+        <v>0.692371252292233</v>
       </c>
       <c r="M12">
-        <v>0.2491468069270901</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>2.091325392814241</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>1.393461250433617</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.085078379476215</v>
+        <v>3.02506700840047</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.2564877125992382</v>
+        <v>0.3165761032461063</v>
       </c>
       <c r="E13">
-        <v>0.04794758511685604</v>
+        <v>0.4907616745075813</v>
       </c>
       <c r="F13">
-        <v>11.20115637365342</v>
+        <v>1.76305474141401</v>
       </c>
       <c r="G13">
-        <v>0.0008379243743678858</v>
+        <v>2.178861275245538</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1177153923213723</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.003140262026088969</v>
       </c>
       <c r="J13">
-        <v>0.225174831896588</v>
+        <v>1.137276692490957</v>
       </c>
       <c r="K13">
-        <v>1.9701730844493</v>
+        <v>0.2565459153873277</v>
       </c>
       <c r="L13">
-        <v>0.1895276749628039</v>
+        <v>0.7624232574482335</v>
       </c>
       <c r="M13">
-        <v>0.2479147256017882</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>1.893548932943304</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>1.48240064944271</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.068788246714689</v>
+        <v>2.879882558446582</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.2517032048674537</v>
+        <v>0.3202584742426353</v>
       </c>
       <c r="E14">
-        <v>0.04747814596676481</v>
+        <v>0.5113392045135541</v>
       </c>
       <c r="F14">
-        <v>11.03965406413448</v>
+        <v>1.630888894845256</v>
       </c>
       <c r="G14">
-        <v>0.0008398640009445336</v>
+        <v>2.032675938778283</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1663336906104291</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.003555747417754773</v>
       </c>
       <c r="J14">
-        <v>0.223212872289384</v>
+        <v>1.066449393114539</v>
       </c>
       <c r="K14">
-        <v>1.930627453334381</v>
+        <v>0.248934933940669</v>
       </c>
       <c r="L14">
-        <v>0.1859524790427685</v>
+        <v>0.8055671904648278</v>
       </c>
       <c r="M14">
-        <v>0.2439192614421586</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>1.734907110821439</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>1.542664233959883</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.058868595175824</v>
+        <v>2.824400793087875</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.2487835310582653</v>
+        <v>0.3192933676593128</v>
       </c>
       <c r="E15">
-        <v>0.04719233097454456</v>
+        <v>0.5136374930413297</v>
       </c>
       <c r="F15">
-        <v>10.94111608777166</v>
+        <v>1.589471110446425</v>
       </c>
       <c r="G15">
-        <v>0.0008410529371216668</v>
+        <v>1.983443989805778</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1785118624925985</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.003856200180378799</v>
       </c>
       <c r="J15">
-        <v>0.2220167117546765</v>
+        <v>1.043189484573844</v>
       </c>
       <c r="K15">
-        <v>1.906556177291634</v>
+        <v>0.2482038432378726</v>
       </c>
       <c r="L15">
-        <v>0.1837826549036947</v>
+        <v>0.8120342842830723</v>
       </c>
       <c r="M15">
-        <v>0.2414889943193756</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>1.68687368304677</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>1.555756246866181</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.002879256055195</v>
+        <v>2.653275809535614</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.2322095713541188</v>
+        <v>0.3001771840059888</v>
       </c>
       <c r="E16">
-        <v>0.04557890868516612</v>
+        <v>0.4821373307670811</v>
       </c>
       <c r="F16">
-        <v>10.38201921572934</v>
+        <v>1.511383590467489</v>
       </c>
       <c r="G16">
-        <v>0.0008478822357258351</v>
+        <v>1.864549087002672</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.164231729438356</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.004795417387695622</v>
       </c>
       <c r="J16">
-        <v>0.2152410804819489</v>
+        <v>0.9916494594061191</v>
       </c>
       <c r="K16">
-        <v>1.770807707245069</v>
+        <v>0.258486354079138</v>
       </c>
       <c r="L16">
-        <v>0.1716403540626033</v>
+        <v>0.7617244927522648</v>
       </c>
       <c r="M16">
-        <v>0.2278113354872175</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>1.585945185958792</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>1.519574406241162</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.969253232498005</v>
+        <v>2.598433622843231</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.2221714364224852</v>
+        <v>0.283684290076863</v>
       </c>
       <c r="E17">
-        <v>0.04460885642631229</v>
+        <v>0.4470980685814112</v>
       </c>
       <c r="F17">
-        <v>10.04365685419856</v>
+        <v>1.521270474908306</v>
       </c>
       <c r="G17">
-        <v>0.0008520889788286151</v>
+        <v>1.850861114523354</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1257191449068387</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.005326256281183994</v>
       </c>
       <c r="J17">
-        <v>0.2111481081316526</v>
+        <v>0.9897222466966298</v>
       </c>
       <c r="K17">
-        <v>1.689355375565697</v>
+        <v>0.2701121621168445</v>
       </c>
       <c r="L17">
-        <v>0.1644357842815936</v>
+        <v>0.7001411376179476</v>
       </c>
       <c r="M17">
-        <v>0.2196300687831361</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>1.591885329669509</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>1.460216681735304</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9501616347411073</v>
+        <v>2.641404604246361</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.2164411529521999</v>
+        <v>0.2676117911394869</v>
       </c>
       <c r="E18">
-        <v>0.04405737285222333</v>
+        <v>0.4060980977345068</v>
       </c>
       <c r="F18">
-        <v>9.850604572879973</v>
+        <v>1.610540130878746</v>
       </c>
       <c r="G18">
-        <v>0.0008545160082662533</v>
+        <v>1.92787187735459</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07272343605350784</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.005163741000847821</v>
       </c>
       <c r="J18">
-        <v>0.2088147378906022</v>
+        <v>1.031035161092177</v>
       </c>
       <c r="K18">
-        <v>1.643126770552584</v>
+        <v>0.2865117825052277</v>
       </c>
       <c r="L18">
-        <v>0.1603755770772111</v>
+        <v>0.6245209514794823</v>
       </c>
       <c r="M18">
-        <v>0.214996581656191</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>1.689156063745799</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>1.375060583197239</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9437389015581061</v>
+        <v>2.750199081410926</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.2145080504580363</v>
+        <v>0.2538274171407267</v>
       </c>
       <c r="E19">
-        <v>0.04387168994085044</v>
+        <v>0.3668669750228233</v>
       </c>
       <c r="F19">
-        <v>9.785496924543622</v>
+        <v>1.754755114021421</v>
       </c>
       <c r="G19">
-        <v>0.0008553391332803307</v>
+        <v>2.068939505585803</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02784794770473553</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.005016035684556996</v>
       </c>
       <c r="J19">
-        <v>0.208028037482574</v>
+        <v>1.102274263437437</v>
       </c>
       <c r="K19">
-        <v>1.627576640395972</v>
+        <v>0.3068730146538101</v>
       </c>
       <c r="L19">
-        <v>0.1590146798283243</v>
+        <v>0.550826461573962</v>
       </c>
       <c r="M19">
-        <v>0.2134397190372788</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>1.863572898416436</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>1.287652883805279</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9728066405218669</v>
+        <v>3.060510223458152</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.2232354315926415</v>
+        <v>0.2458790650927938</v>
       </c>
       <c r="E20">
-        <v>0.04471143407809208</v>
+        <v>0.3304828364359764</v>
       </c>
       <c r="F20">
-        <v>10.07951121413399</v>
+        <v>2.05908264726115</v>
       </c>
       <c r="G20">
-        <v>0.0008516404197887463</v>
+        <v>2.396132023368637</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.003758806698394679</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.003969367809509627</v>
       </c>
       <c r="J20">
-        <v>0.2115816030998126</v>
+        <v>1.260616318716643</v>
       </c>
       <c r="K20">
-        <v>1.697960796740233</v>
+        <v>0.3394859748080421</v>
       </c>
       <c r="L20">
-        <v>0.165193930582916</v>
+        <v>0.4782749279058862</v>
       </c>
       <c r="M20">
-        <v>0.2204934049253815</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>2.239432072310308</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>1.180533667496988</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.073560756301191</v>
+        <v>3.454710103390084</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.2531062171083676</v>
+        <v>0.2729965074347831</v>
       </c>
       <c r="E21">
-        <v>0.04761566600515099</v>
+        <v>0.364874623370703</v>
       </c>
       <c r="F21">
-        <v>11.08700973769538</v>
+        <v>2.301588810965214</v>
       </c>
       <c r="G21">
-        <v>0.0008392941136831929</v>
+        <v>2.713867885933325</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.007458602940002168</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.002679357465516397</v>
       </c>
       <c r="J21">
-        <v>0.2237879645525389</v>
+        <v>1.404603162893068</v>
       </c>
       <c r="K21">
-        <v>1.942211059686372</v>
+        <v>0.3330622532776637</v>
       </c>
       <c r="L21">
-        <v>0.1869983757003126</v>
+        <v>0.5265216423152168</v>
       </c>
       <c r="M21">
-        <v>0.2450892380967069</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>2.549194482273123</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>1.19076688805211</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.14198475169789</v>
+        <v>3.709751018181692</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.2731081858501625</v>
+        <v>0.2917035342822345</v>
       </c>
       <c r="E22">
-        <v>0.04958900600074223</v>
+        <v>0.3894025454913645</v>
       </c>
       <c r="F22">
-        <v>11.7624105447988</v>
+        <v>2.455202908127262</v>
       </c>
       <c r="G22">
-        <v>0.0008312665752717531</v>
+        <v>2.91755145056203</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.01051950923604376</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.001848858644370566</v>
       </c>
       <c r="J22">
-        <v>0.2320088390467667</v>
+        <v>1.496804749152574</v>
       </c>
       <c r="K22">
-        <v>2.108488225290557</v>
+        <v>0.3288996789288845</v>
       </c>
       <c r="L22">
-        <v>0.202130955003426</v>
+        <v>0.5615629433680454</v>
       </c>
       <c r="M22">
-        <v>0.2619146913181467</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>2.733950228433912</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>1.199795376229744</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.105211263355386</v>
+        <v>3.580335003386836</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.2623839709900579</v>
+        <v>0.2814693404499025</v>
       </c>
       <c r="E23">
-        <v>0.04852796895243916</v>
+        <v>0.3756837162798874</v>
       </c>
       <c r="F23">
-        <v>11.40022859332032</v>
+        <v>2.376393596429679</v>
       </c>
       <c r="G23">
-        <v>0.000835548516689545</v>
+        <v>2.811874850661127</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.008832118392357161</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.001940485721351415</v>
       </c>
       <c r="J23">
-        <v>0.2275958709614549</v>
+        <v>1.449114148480334</v>
       </c>
       <c r="K23">
-        <v>2.019075918323182</v>
+        <v>0.3325374905225047</v>
       </c>
       <c r="L23">
-        <v>0.1939664631877775</v>
+        <v>0.5417365750422789</v>
       </c>
       <c r="M23">
-        <v>0.2528602643244753</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>2.630535903585525</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>1.191541921879747</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9711993995672685</v>
+        <v>3.079522195209734</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.2227542733591577</v>
+        <v>0.2439488888119286</v>
       </c>
       <c r="E24">
-        <v>0.04466503955613543</v>
+        <v>0.3257244245333766</v>
       </c>
       <c r="F24">
-        <v>10.06329689005628</v>
+        <v>2.079140199213384</v>
       </c>
       <c r="G24">
-        <v>0.0008518431866247483</v>
+        <v>2.414879878089749</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.003724733561063953</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.003420901757440475</v>
       </c>
       <c r="J24">
-        <v>0.2113855591675069</v>
+        <v>1.270155198236296</v>
       </c>
       <c r="K24">
-        <v>1.694068430526841</v>
+        <v>0.3448891075814657</v>
       </c>
       <c r="L24">
-        <v>0.1648509193048966</v>
+        <v>0.4697913163319924</v>
       </c>
       <c r="M24">
-        <v>0.2201028736609167</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>2.249938707241881</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>1.167362988873577</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8360198070256217</v>
+        <v>2.539553093255677</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.181625899234561</v>
+        <v>0.2049375523914421</v>
       </c>
       <c r="E25">
-        <v>0.0407383583217138</v>
+        <v>0.2735370747808687</v>
       </c>
       <c r="F25">
-        <v>8.679726618970989</v>
+        <v>1.770952605815083</v>
       </c>
       <c r="G25">
-        <v>0.0008697140217624981</v>
+        <v>2.002307002131488</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.0006031945319255883</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.006231624480685483</v>
       </c>
       <c r="J25">
-        <v>0.1946711979185878</v>
+        <v>1.085159525671315</v>
       </c>
       <c r="K25">
-        <v>1.366753814836869</v>
+        <v>0.3600897816151445</v>
       </c>
       <c r="L25">
-        <v>0.1365870189052742</v>
+        <v>0.3944692499796503</v>
       </c>
       <c r="M25">
-        <v>0.1874816838835791</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>1.845250578707663</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>1.144324102428087</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_26/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_26/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.157410392673626</v>
+        <v>2.082173854592952</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1765718459243288</v>
+        <v>0.1684594440642257</v>
       </c>
       <c r="E2">
-        <v>0.2347281055987303</v>
+        <v>0.2275367273808335</v>
       </c>
       <c r="F2">
-        <v>1.560872718394762</v>
+        <v>1.528841399191165</v>
       </c>
       <c r="G2">
-        <v>1.71713056790631</v>
+        <v>1.662430797868154</v>
       </c>
       <c r="H2">
-        <v>9.651332749660568E-06</v>
+        <v>1.308403950517345E-06</v>
       </c>
       <c r="I2">
-        <v>0.008387873804902135</v>
+        <v>0.005783274353996504</v>
       </c>
       <c r="J2">
-        <v>0.9585677627143525</v>
+        <v>1.006334143523901</v>
       </c>
       <c r="K2">
-        <v>0.3763522404455628</v>
+        <v>0.3338944036044289</v>
       </c>
       <c r="L2">
-        <v>0.3378233746757076</v>
+        <v>0.1526481670002475</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.1012445969891971</v>
       </c>
       <c r="N2">
-        <v>1.539853779024867</v>
+        <v>0.3301581996506684</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>1.122260720932005</v>
+        <v>1.587831700731812</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>1.123261362745978</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.888528519531576</v>
+        <v>1.82796666499425</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1579840102418828</v>
+        <v>0.150570426493843</v>
       </c>
       <c r="E3">
-        <v>0.2096287784315862</v>
+        <v>0.2021290906782802</v>
       </c>
       <c r="F3">
-        <v>1.417812506160843</v>
+        <v>1.3929340745063</v>
       </c>
       <c r="G3">
-        <v>1.524086997105542</v>
+        <v>1.476794969407905</v>
       </c>
       <c r="H3">
-        <v>0.000510461948662666</v>
+        <v>0.0002898541228955054</v>
       </c>
       <c r="I3">
-        <v>0.01076191543406235</v>
+        <v>0.007435902615056111</v>
       </c>
       <c r="J3">
-        <v>0.8731030133593549</v>
+        <v>0.9209220888577363</v>
       </c>
       <c r="K3">
-        <v>0.3860797660632684</v>
+        <v>0.3441002788321743</v>
       </c>
       <c r="L3">
-        <v>0.3014336641526825</v>
+        <v>0.1585702122658681</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.104521920062048</v>
       </c>
       <c r="N3">
-        <v>1.340978652116291</v>
+        <v>0.2924222655291047</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>1.113239032269618</v>
+        <v>1.379152030542826</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>1.101895206262995</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.72276313953833</v>
+        <v>1.670766302923596</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1467018161821017</v>
+        <v>0.1397012585277224</v>
       </c>
       <c r="E4">
-        <v>0.1943815303016798</v>
+        <v>0.1867026257007929</v>
       </c>
       <c r="F4">
-        <v>1.33159196647172</v>
+        <v>1.310702268992372</v>
       </c>
       <c r="G4">
-        <v>1.407480795214724</v>
+        <v>1.364716974361841</v>
       </c>
       <c r="H4">
-        <v>0.00121858667757202</v>
+        <v>0.0008131074940322947</v>
       </c>
       <c r="I4">
-        <v>0.01245193216497142</v>
+        <v>0.008634208292968459</v>
       </c>
       <c r="J4">
-        <v>0.8217148260548299</v>
+        <v>0.8688489601085223</v>
       </c>
       <c r="K4">
-        <v>0.3923509903491791</v>
+        <v>0.3505687432739393</v>
       </c>
       <c r="L4">
-        <v>0.2793203324766296</v>
+        <v>0.1623723272445119</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1070320711236121</v>
       </c>
       <c r="N4">
-        <v>1.219707211793462</v>
+        <v>0.2695209976972777</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>1.108518787045746</v>
+        <v>1.252019825035319</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>1.089787120003038</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.653404612576026</v>
+        <v>1.604892679128682</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1421797317934974</v>
+        <v>0.1353438433612979</v>
       </c>
       <c r="E5">
-        <v>0.1883400639985879</v>
+        <v>0.1805890526903262</v>
       </c>
       <c r="F5">
-        <v>1.29594728206888</v>
+        <v>1.276640746062654</v>
       </c>
       <c r="G5">
-        <v>1.359534332788286</v>
+        <v>1.318665301391945</v>
       </c>
       <c r="H5">
-        <v>0.001602737492701456</v>
+        <v>0.001108836973882754</v>
       </c>
       <c r="I5">
-        <v>0.01328419606882392</v>
+        <v>0.009264840233732308</v>
       </c>
       <c r="J5">
-        <v>0.8005883954051001</v>
+        <v>0.8472914439044246</v>
       </c>
       <c r="K5">
-        <v>0.3945882315358986</v>
+        <v>0.3529119418753233</v>
       </c>
       <c r="L5">
-        <v>0.2706104120685708</v>
+        <v>0.1637765977112711</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1081086879239201</v>
       </c>
       <c r="N5">
-        <v>1.171611121635038</v>
+        <v>0.2604965406367725</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>1.107531400417713</v>
+        <v>1.201532486301033</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>1.085842198861826</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.639880033831162</v>
+        <v>1.592065492049358</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1414910349620158</v>
+        <v>0.1346811927368279</v>
       </c>
       <c r="E6">
-        <v>0.1875092771030289</v>
+        <v>0.1797431408955568</v>
       </c>
       <c r="F6">
-        <v>1.288977662817658</v>
+        <v>1.269992626124605</v>
       </c>
       <c r="G6">
-        <v>1.35054817065523</v>
+        <v>1.310060686355484</v>
       </c>
       <c r="H6">
-        <v>0.001673734327060972</v>
+        <v>0.001164019668545291</v>
       </c>
       <c r="I6">
-        <v>0.01354033106673747</v>
+        <v>0.009501006705938231</v>
       </c>
       <c r="J6">
-        <v>0.7965644610304423</v>
+        <v>0.8432060682367251</v>
       </c>
       <c r="K6">
-        <v>0.3944884857433966</v>
+        <v>0.352888418636045</v>
       </c>
       <c r="L6">
-        <v>0.2694795365171956</v>
+        <v>0.1637854001202577</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1082091907195908</v>
       </c>
       <c r="N6">
-        <v>1.165029702927825</v>
+        <v>0.2593087269458181</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>1.108283247935177</v>
+        <v>1.194501578027712</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>1.086112209692715</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.716356209030323</v>
+        <v>1.663610444423767</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1468075076749003</v>
+        <v>0.1393074583092613</v>
       </c>
       <c r="E7">
-        <v>0.1947675262196356</v>
+        <v>0.1866333668818427</v>
       </c>
       <c r="F7">
-        <v>1.328179328456955</v>
+        <v>1.304500864833486</v>
       </c>
       <c r="G7">
-        <v>1.403962796118776</v>
+        <v>1.366141464136973</v>
       </c>
       <c r="H7">
-        <v>0.00122719878025368</v>
+        <v>0.000823966733003445</v>
       </c>
       <c r="I7">
-        <v>0.01275882901236525</v>
+        <v>0.008982760917394472</v>
       </c>
       <c r="J7">
-        <v>0.8199796961326911</v>
+        <v>0.8557345555045401</v>
       </c>
       <c r="K7">
-        <v>0.3910848765279482</v>
+        <v>0.3492488519575385</v>
       </c>
       <c r="L7">
-        <v>0.2800598072931137</v>
+        <v>0.1616672352625521</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1067521975608914</v>
       </c>
       <c r="N7">
-        <v>1.222873288191494</v>
+        <v>0.2697681284261364</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>1.110998197436828</v>
+        <v>1.252853441103014</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>1.092852910570258</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.057519041275839</v>
+        <v>1.984094348219401</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1703546046715019</v>
+        <v>0.1608078050227846</v>
       </c>
       <c r="E8">
-        <v>0.2266602863068279</v>
+        <v>0.2178507888689971</v>
       </c>
       <c r="F8">
-        <v>1.507294829614466</v>
+        <v>1.468082240895413</v>
       </c>
       <c r="G8">
-        <v>1.646319702420271</v>
+        <v>1.610306092135232</v>
       </c>
       <c r="H8">
-        <v>9.645813850944762E-05</v>
+        <v>2.864951455050502E-05</v>
       </c>
       <c r="I8">
-        <v>0.009510259459324821</v>
+        <v>0.006735413478448748</v>
       </c>
       <c r="J8">
-        <v>0.9269349398317672</v>
+        <v>0.93698720951312</v>
       </c>
       <c r="K8">
-        <v>0.3779454132163398</v>
+        <v>0.3352050465405316</v>
       </c>
       <c r="L8">
-        <v>0.3263674111712049</v>
+        <v>0.1536015702384539</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.1016908612821714</v>
       </c>
       <c r="N8">
-        <v>1.476173693652498</v>
+        <v>0.3166176290576317</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>1.122393360899622</v>
+        <v>1.513307319535244</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>1.121253651827743</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.731545781642808</v>
+        <v>2.617292393614036</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.217613880730525</v>
+        <v>0.2056610493932283</v>
       </c>
       <c r="E9">
-        <v>0.2900712476138807</v>
+        <v>0.281578582869102</v>
       </c>
       <c r="F9">
-        <v>1.878619772010751</v>
+        <v>1.815887693915784</v>
       </c>
       <c r="G9">
-        <v>2.14470073416706</v>
+        <v>2.09450133714094</v>
       </c>
       <c r="H9">
-        <v>0.001373663245213042</v>
+        <v>0.001463786130377676</v>
       </c>
       <c r="I9">
-        <v>0.004666282773451158</v>
+        <v>0.003344761149961961</v>
       </c>
       <c r="J9">
-        <v>1.149158337130842</v>
+        <v>1.143391813929014</v>
       </c>
       <c r="K9">
-        <v>0.3569921395017559</v>
+        <v>0.3121306209563084</v>
       </c>
       <c r="L9">
-        <v>0.4180171333192959</v>
+        <v>0.1404675741068413</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.09650506977048323</v>
       </c>
       <c r="N9">
-        <v>1.973948999816685</v>
+        <v>0.4113005388410471</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>1.146809151922383</v>
+        <v>2.034324077542777</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>1.17825660231189</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.202321264878606</v>
+        <v>3.051860307465461</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2552972450244084</v>
+        <v>0.2382606731460015</v>
       </c>
       <c r="E10">
-        <v>0.3427868397633134</v>
+        <v>0.3315975622063405</v>
       </c>
       <c r="F10">
-        <v>2.138390627052061</v>
+        <v>2.039883305341505</v>
       </c>
       <c r="G10">
-        <v>2.500873635382561</v>
+        <v>2.470574691182691</v>
       </c>
       <c r="H10">
-        <v>0.004918323140622238</v>
+        <v>0.004714912310695318</v>
       </c>
       <c r="I10">
-        <v>0.002690188336291754</v>
+        <v>0.002152784842178512</v>
       </c>
       <c r="J10">
-        <v>1.307958260229327</v>
+        <v>1.220312116725211</v>
       </c>
       <c r="K10">
-        <v>0.3388495242714278</v>
+        <v>0.2919586202392424</v>
       </c>
       <c r="L10">
-        <v>0.4958117387078005</v>
+        <v>0.1300598421303967</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.09347249549134418</v>
       </c>
       <c r="N10">
-        <v>2.319783774094162</v>
+        <v>0.4883162884500081</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>1.180592955360325</v>
+        <v>2.382240979362024</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>1.240516519070368</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.237712393305287</v>
+        <v>3.086231171602833</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2868047013684247</v>
+        <v>0.2611861802281794</v>
       </c>
       <c r="E11">
-        <v>0.4077849374405176</v>
+        <v>0.3887180360769307</v>
       </c>
       <c r="F11">
-        <v>2.051030741639934</v>
+        <v>1.923761054465288</v>
       </c>
       <c r="G11">
-        <v>2.457549256034298</v>
+        <v>2.499062748685787</v>
       </c>
       <c r="H11">
-        <v>0.02412441390389475</v>
+        <v>0.02370873611823399</v>
       </c>
       <c r="I11">
-        <v>0.002879611668325843</v>
+        <v>0.002608861167397336</v>
       </c>
       <c r="J11">
-        <v>1.278457855264179</v>
+        <v>1.057382045696073</v>
       </c>
       <c r="K11">
-        <v>0.2983112700018502</v>
+        <v>0.2585853940070368</v>
       </c>
       <c r="L11">
-        <v>0.6072092825642414</v>
+        <v>0.1174803751821818</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.08204569820426499</v>
       </c>
       <c r="N11">
-        <v>2.23799460035562</v>
+        <v>0.5918347100513444</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>1.29705872328941</v>
+        <v>2.260344981508609</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>1.372422449152694</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.174993440411185</v>
+        <v>3.034332606706585</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.3059371424446056</v>
+        <v>0.2756432594629246</v>
       </c>
       <c r="E12">
-        <v>0.4548074386340417</v>
+        <v>0.4305017590342146</v>
       </c>
       <c r="F12">
-        <v>1.926991398060267</v>
+        <v>1.794793872682703</v>
       </c>
       <c r="G12">
-        <v>2.348867144064485</v>
+        <v>2.427255390535549</v>
       </c>
       <c r="H12">
-        <v>0.06269526299816164</v>
+        <v>0.06222522185994706</v>
       </c>
       <c r="I12">
-        <v>0.002881576662193019</v>
+        <v>0.002623587858564314</v>
       </c>
       <c r="J12">
-        <v>1.221351404451013</v>
+        <v>0.9502132181644072</v>
       </c>
       <c r="K12">
-        <v>0.2732596226549582</v>
+        <v>0.2398795115088515</v>
       </c>
       <c r="L12">
-        <v>0.692371252292233</v>
+        <v>0.1112478161354238</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.0746085160341412</v>
       </c>
       <c r="N12">
-        <v>2.091325392814241</v>
+        <v>0.6709050221217723</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>1.393461250433617</v>
+        <v>2.089350454225894</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>1.471717379702284</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.02506700840047</v>
+        <v>2.908300911443291</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.3165761032461063</v>
+        <v>0.2862300540704155</v>
       </c>
       <c r="E13">
-        <v>0.4907616745075813</v>
+        <v>0.4650448304797621</v>
       </c>
       <c r="F13">
-        <v>1.76305474141401</v>
+        <v>1.650111679141432</v>
       </c>
       <c r="G13">
-        <v>2.178861275245538</v>
+        <v>2.257852778521567</v>
       </c>
       <c r="H13">
-        <v>0.1177153923213723</v>
+        <v>0.1173376758812879</v>
       </c>
       <c r="I13">
-        <v>0.003140262026088969</v>
+        <v>0.002770922339355941</v>
       </c>
       <c r="J13">
-        <v>1.137276692490957</v>
+        <v>0.8954063583576328</v>
       </c>
       <c r="K13">
-        <v>0.2565459153873277</v>
+        <v>0.229269425425497</v>
       </c>
       <c r="L13">
-        <v>0.7624232574482335</v>
+        <v>0.1081033110225027</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.06951086354964797</v>
       </c>
       <c r="N13">
-        <v>1.893548932943304</v>
+        <v>0.738260773456787</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>1.48240064944271</v>
+        <v>1.882100337279184</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>1.550896929115197</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.879882558446582</v>
+        <v>2.785283889861716</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.3202584742426353</v>
+        <v>0.292097055570764</v>
       </c>
       <c r="E14">
-        <v>0.5113392045135541</v>
+        <v>0.4865662692445127</v>
       </c>
       <c r="F14">
-        <v>1.630888894845256</v>
+        <v>1.54085985185975</v>
       </c>
       <c r="G14">
-        <v>2.032675938778283</v>
+        <v>2.097351530813484</v>
       </c>
       <c r="H14">
-        <v>0.1663336906104291</v>
+        <v>0.1660709559593982</v>
       </c>
       <c r="I14">
-        <v>0.003555747417754773</v>
+        <v>0.003057306005034732</v>
       </c>
       <c r="J14">
-        <v>1.066449393114539</v>
+        <v>0.876925784975839</v>
       </c>
       <c r="K14">
-        <v>0.248934933940669</v>
+        <v>0.2253658801895346</v>
       </c>
       <c r="L14">
-        <v>0.8055671904648278</v>
+        <v>0.1070375929145311</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.06716747315887872</v>
       </c>
       <c r="N14">
-        <v>1.734907110821439</v>
+        <v>0.7812448374413066</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>1.542664233959883</v>
+        <v>1.722630723538572</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>1.598039322707962</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.824400793087875</v>
+        <v>2.737692080323882</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.3192933676593128</v>
+        <v>0.2926434949890506</v>
       </c>
       <c r="E15">
-        <v>0.5136374930413297</v>
+        <v>0.4899898151596389</v>
       </c>
       <c r="F15">
-        <v>1.589471110446425</v>
+        <v>1.509142955921632</v>
       </c>
       <c r="G15">
-        <v>1.983443989805778</v>
+        <v>2.038612199441445</v>
       </c>
       <c r="H15">
-        <v>0.1785118624925985</v>
+        <v>0.1783008999214246</v>
       </c>
       <c r="I15">
-        <v>0.003856200180378799</v>
+        <v>0.003314893865619339</v>
       </c>
       <c r="J15">
-        <v>1.043189484573844</v>
+        <v>0.8801382843889485</v>
       </c>
       <c r="K15">
-        <v>0.2482038432378726</v>
+        <v>0.2254635508862144</v>
       </c>
       <c r="L15">
-        <v>0.8120342842830723</v>
+        <v>0.1070811597003614</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.0669514080064868</v>
       </c>
       <c r="N15">
-        <v>1.68687368304677</v>
+        <v>0.7885441677427281</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>1.555756246866181</v>
+        <v>1.676610227138923</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>1.605468301438052</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.653275809535614</v>
+        <v>2.586891730402328</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.3001771840059888</v>
+        <v>0.2816180266800927</v>
       </c>
       <c r="E16">
-        <v>0.4821373307670811</v>
+        <v>0.4659390500821416</v>
       </c>
       <c r="F16">
-        <v>1.511383590467489</v>
+        <v>1.465671973896306</v>
       </c>
       <c r="G16">
-        <v>1.864549087002672</v>
+        <v>1.870035972310802</v>
       </c>
       <c r="H16">
-        <v>0.164231729438356</v>
+        <v>0.1642165198481536</v>
       </c>
       <c r="I16">
-        <v>0.004795417387695622</v>
+        <v>0.003956471613212997</v>
       </c>
       <c r="J16">
-        <v>0.9916494594061191</v>
+        <v>0.945105264619059</v>
       </c>
       <c r="K16">
-        <v>0.258486354079138</v>
+        <v>0.2353716205509393</v>
       </c>
       <c r="L16">
-        <v>0.7617244927522648</v>
+        <v>0.1100853182945372</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.0702711936400906</v>
       </c>
       <c r="N16">
-        <v>1.585945185958792</v>
+        <v>0.7456940281840048</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>1.519574406241162</v>
+        <v>1.594172842586744</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>1.549839849952278</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.598433622843231</v>
+        <v>2.534355090015538</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.283684290076863</v>
+        <v>0.268908445046506</v>
       </c>
       <c r="E17">
-        <v>0.4470980685814112</v>
+        <v>0.4347336917116351</v>
       </c>
       <c r="F17">
-        <v>1.521270474908306</v>
+        <v>1.486758574878436</v>
       </c>
       <c r="G17">
-        <v>1.850861114523354</v>
+        <v>1.832292036290028</v>
       </c>
       <c r="H17">
-        <v>0.1257191449068387</v>
+        <v>0.1257678218794496</v>
       </c>
       <c r="I17">
-        <v>0.005326256281183994</v>
+        <v>0.004330733012589683</v>
       </c>
       <c r="J17">
-        <v>0.9897222466966298</v>
+        <v>0.9923518279686334</v>
       </c>
       <c r="K17">
-        <v>0.2701121621168445</v>
+        <v>0.2451405182269744</v>
       </c>
       <c r="L17">
-        <v>0.7001411376179476</v>
+        <v>0.1133848889167131</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.07380163677583518</v>
       </c>
       <c r="N17">
-        <v>1.591885329669509</v>
+        <v>0.6883998436434666</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>1.460216681735304</v>
+        <v>1.612289071182033</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>1.484851825067665</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.641404604246361</v>
+        <v>2.566879425950049</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.2676117911394869</v>
+        <v>0.254708400577158</v>
       </c>
       <c r="E18">
-        <v>0.4060980977345068</v>
+        <v>0.3961616080882493</v>
       </c>
       <c r="F18">
-        <v>1.610540130878746</v>
+        <v>1.574573907192999</v>
       </c>
       <c r="G18">
-        <v>1.92787187735459</v>
+        <v>1.893069911605579</v>
       </c>
       <c r="H18">
-        <v>0.07272343605350784</v>
+        <v>0.07278871630481376</v>
       </c>
       <c r="I18">
-        <v>0.005163741000847821</v>
+        <v>0.00409136607056837</v>
       </c>
       <c r="J18">
-        <v>1.031035161092177</v>
+        <v>1.052016393978619</v>
       </c>
       <c r="K18">
-        <v>0.2865117825052277</v>
+        <v>0.2578752017686483</v>
       </c>
       <c r="L18">
-        <v>0.6245209514794823</v>
+        <v>0.1181342948831956</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.0784459893445586</v>
       </c>
       <c r="N18">
-        <v>1.689156063745799</v>
+        <v>0.6160722588620757</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>1.375060583197239</v>
+        <v>1.722778041898835</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>1.402245066232723</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.750199081410926</v>
+        <v>2.657174936102535</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.2538274171407267</v>
+        <v>0.2416894344804774</v>
       </c>
       <c r="E19">
-        <v>0.3668669750228233</v>
+        <v>0.3584059593955118</v>
       </c>
       <c r="F19">
-        <v>1.754755114021421</v>
+        <v>1.709582956258672</v>
       </c>
       <c r="G19">
-        <v>2.068939505585803</v>
+        <v>2.021149464220173</v>
       </c>
       <c r="H19">
-        <v>0.02784794770473553</v>
+        <v>0.02790708845703449</v>
       </c>
       <c r="I19">
-        <v>0.005016035684556996</v>
+        <v>0.004050443192462616</v>
       </c>
       <c r="J19">
-        <v>1.102274263437437</v>
+        <v>1.124565244184339</v>
       </c>
       <c r="K19">
-        <v>0.3068730146538101</v>
+        <v>0.2729273556655176</v>
       </c>
       <c r="L19">
-        <v>0.550826461573962</v>
+        <v>0.1239653556575746</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.08397434848189533</v>
       </c>
       <c r="N19">
-        <v>1.863572898416436</v>
+        <v>0.5447064762409468</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>1.287652883805279</v>
+        <v>1.912387949218584</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>1.321357352694378</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.060510223458152</v>
+        <v>2.925422012987326</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.2458790650927938</v>
+        <v>0.2320620769112622</v>
       </c>
       <c r="E20">
-        <v>0.3304828364359764</v>
+        <v>0.3216959393975287</v>
       </c>
       <c r="F20">
-        <v>2.05908264726115</v>
+        <v>1.98190202558213</v>
       </c>
       <c r="G20">
-        <v>2.396132023368637</v>
+        <v>2.343619925906296</v>
       </c>
       <c r="H20">
-        <v>0.003758806698394679</v>
+        <v>0.003693814622256042</v>
       </c>
       <c r="I20">
-        <v>0.003969367809509627</v>
+        <v>0.003388519517572242</v>
       </c>
       <c r="J20">
-        <v>1.260616318716643</v>
+        <v>1.236077168342604</v>
       </c>
       <c r="K20">
-        <v>0.3394859748080421</v>
+        <v>0.2946620973408454</v>
       </c>
       <c r="L20">
-        <v>0.4782749279058862</v>
+        <v>0.1318002271211984</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.09314484399495093</v>
       </c>
       <c r="N20">
-        <v>2.239432072310308</v>
+        <v>0.472802728889647</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>1.180533667496988</v>
+        <v>2.308888241193671</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>1.230726482963206</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.454710103390084</v>
+        <v>3.2632956345509</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.2729965074347831</v>
+        <v>0.2455139202851626</v>
       </c>
       <c r="E21">
-        <v>0.364874623370703</v>
+        <v>0.3452091940163626</v>
       </c>
       <c r="F21">
-        <v>2.301588810965214</v>
+        <v>2.134459369209608</v>
       </c>
       <c r="G21">
-        <v>2.713867885933325</v>
+        <v>2.769462875636606</v>
       </c>
       <c r="H21">
-        <v>0.007458602940002168</v>
+        <v>0.006806764145658006</v>
       </c>
       <c r="I21">
-        <v>0.002679357465516397</v>
+        <v>0.002617109088950187</v>
       </c>
       <c r="J21">
-        <v>1.404603162893068</v>
+        <v>1.10566080850532</v>
       </c>
       <c r="K21">
-        <v>0.3330622532776637</v>
+        <v>0.2809932702150881</v>
       </c>
       <c r="L21">
-        <v>0.5265216423152168</v>
+        <v>0.1248309655849429</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.09194134873524895</v>
       </c>
       <c r="N21">
-        <v>2.549194482273123</v>
+        <v>0.5110106232979916</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>1.19076688805211</v>
+        <v>2.580558824293206</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>1.277546485895982</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.709751018181692</v>
+        <v>3.4795595649029</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.2917035342822345</v>
+        <v>0.2545376322876933</v>
       </c>
       <c r="E22">
-        <v>0.3894025454913645</v>
+        <v>0.361834317624087</v>
       </c>
       <c r="F22">
-        <v>2.455202908127262</v>
+        <v>2.223621136087829</v>
       </c>
       <c r="G22">
-        <v>2.91755145056203</v>
+        <v>3.055936498136759</v>
       </c>
       <c r="H22">
-        <v>0.01051950923604376</v>
+        <v>0.009318159579129327</v>
       </c>
       <c r="I22">
-        <v>0.001848858644370566</v>
+        <v>0.001953779302793279</v>
       </c>
       <c r="J22">
-        <v>1.496804749152574</v>
+        <v>1.010377548851039</v>
       </c>
       <c r="K22">
-        <v>0.3288996789288845</v>
+        <v>0.271889141583177</v>
       </c>
       <c r="L22">
-        <v>0.5615629433680454</v>
+        <v>0.1203713141676239</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.0913694241190548</v>
       </c>
       <c r="N22">
-        <v>2.733950228433912</v>
+        <v>0.5386017850002531</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>1.199795376229744</v>
+        <v>2.735136340504425</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>1.311799824229951</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.580335003386836</v>
+        <v>3.373572761375726</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.2814693404499025</v>
+        <v>0.2507997056107456</v>
       </c>
       <c r="E23">
-        <v>0.3756837162798874</v>
+        <v>0.3535795981734395</v>
       </c>
       <c r="F23">
-        <v>2.376393596429679</v>
+        <v>2.187179444366407</v>
       </c>
       <c r="G23">
-        <v>2.811874850661127</v>
+        <v>2.891870944509293</v>
       </c>
       <c r="H23">
-        <v>0.008832118392357161</v>
+        <v>0.007965502150560022</v>
       </c>
       <c r="I23">
-        <v>0.001940485721351415</v>
+        <v>0.001901476467217833</v>
       </c>
       <c r="J23">
-        <v>1.449114148480334</v>
+        <v>1.08886027583975</v>
       </c>
       <c r="K23">
-        <v>0.3325374905225047</v>
+        <v>0.2783384911720823</v>
       </c>
       <c r="L23">
-        <v>0.5417365750422789</v>
+        <v>0.1232418363140422</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.09234738524233244</v>
       </c>
       <c r="N23">
-        <v>2.630535903585525</v>
+        <v>0.5240988761749321</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>1.191541921879747</v>
+        <v>2.654189587090997</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>1.287872556133948</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.079522195209734</v>
+        <v>2.941925992229187</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.2439488888119286</v>
+        <v>0.2302972307717255</v>
       </c>
       <c r="E24">
-        <v>0.3257244245333766</v>
+        <v>0.3171005091378518</v>
       </c>
       <c r="F24">
-        <v>2.079140199213384</v>
+        <v>2.000946843478886</v>
       </c>
       <c r="G24">
-        <v>2.414879878089749</v>
+        <v>2.359898113001464</v>
       </c>
       <c r="H24">
-        <v>0.003724733561063953</v>
+        <v>0.003658139052250098</v>
       </c>
       <c r="I24">
-        <v>0.003420901757440475</v>
+        <v>0.002750151150934244</v>
       </c>
       <c r="J24">
-        <v>1.270155198236296</v>
+        <v>1.247148956739409</v>
       </c>
       <c r="K24">
-        <v>0.3448891075814657</v>
+        <v>0.2988458904935882</v>
       </c>
       <c r="L24">
-        <v>0.4697913163319924</v>
+        <v>0.1333724607408371</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.09471329723210964</v>
       </c>
       <c r="N24">
-        <v>2.249938707241881</v>
+        <v>0.4644624754458846</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>1.167362988873577</v>
+        <v>2.321667886402338</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>1.217356481158092</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.539553093255677</v>
+        <v>2.439167027308031</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2049375523914421</v>
+        <v>0.194390795631648</v>
       </c>
       <c r="E25">
-        <v>0.2735370747808687</v>
+        <v>0.2656116438670324</v>
       </c>
       <c r="F25">
-        <v>1.770952605815083</v>
+        <v>1.719708863998406</v>
       </c>
       <c r="G25">
-        <v>2.002307002131488</v>
+        <v>1.949415632118104</v>
       </c>
       <c r="H25">
-        <v>0.0006031945319255883</v>
+        <v>0.0007149554373719891</v>
       </c>
       <c r="I25">
-        <v>0.006231624480685483</v>
+        <v>0.004636449321701264</v>
       </c>
       <c r="J25">
-        <v>1.085159525671315</v>
+        <v>1.100949786884684</v>
       </c>
       <c r="K25">
-        <v>0.3600897816151445</v>
+        <v>0.3165950987937762</v>
       </c>
       <c r="L25">
-        <v>0.3944692499796503</v>
+        <v>0.1432335961328182</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.09692316600444073</v>
       </c>
       <c r="N25">
-        <v>1.845250578707663</v>
+        <v>0.3876099072571435</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>1.144324102428087</v>
+        <v>1.902141219108501</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>1.166016294178263</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
